--- a/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
+++ b/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9A54F-F70C-4E44-9568-52084518E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C411979-9408-4D41-B259-1373FDBA7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1732,7 +1732,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,6 +1912,14 @@
       <color rgb="FFFF0000"/>
       <name val="Klee One SemiBold"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2120,7 +2128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2387,6 +2395,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3720,7 +3731,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5191,8 +5202,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5210,6 +5221,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="2:10" ht="18.5">
       <c r="B5" s="24" t="s">

--- a/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
+++ b/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C411979-9408-4D41-B259-1373FDBA7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B3AA6-5CEA-439F-883C-7B904DF4AA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="3" r:id="rId2"/>
     <sheet name="結合テスト" sheetId="4" r:id="rId3"/>
-    <sheet name="期待結果" sheetId="5" r:id="rId4"/>
-    <sheet name="テストデータ_社員リスト" sheetId="6" r:id="rId5"/>
-    <sheet name="テストデータ_基本給情報リスト" sheetId="7" r:id="rId6"/>
-    <sheet name="テストデータ_更新" sheetId="8" r:id="rId7"/>
+    <sheet name="テストデータ_社員リスト" sheetId="6" r:id="rId4"/>
+    <sheet name="テストデータ_基本給情報リスト" sheetId="7" r:id="rId5"/>
+    <sheet name="テストデータ_更新" sheetId="8" r:id="rId6"/>
+    <sheet name="テストデータ_新規追加" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -29,19 +29,19 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="__a1" localSheetId="6">#REF!</definedName>
     <definedName name="__a1" localSheetId="5">#REF!</definedName>
     <definedName name="__a1" localSheetId="4">#REF!</definedName>
+    <definedName name="__a1" localSheetId="3">#REF!</definedName>
+    <definedName name="__a1" localSheetId="6">#REF!</definedName>
     <definedName name="__a1" localSheetId="2">#REF!</definedName>
     <definedName name="__a1" localSheetId="1">#REF!</definedName>
-    <definedName name="__a1" localSheetId="3">#REF!</definedName>
     <definedName name="__a1">#REF!</definedName>
-    <definedName name="__ＩＯ２" localSheetId="6" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__ＩＯ２" localSheetId="5" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__ＩＯ２" localSheetId="4" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="3" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="6" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__ＩＯ２" localSheetId="2" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__ＩＯ２" localSheetId="1" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" localSheetId="3" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="__ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="_a1">#REF!</definedName>
     <definedName name="_ＩＯ２" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
@@ -822,65 +822,65 @@
     <definedName name="HTML9_9" hidden="1">"野田美由希"</definedName>
     <definedName name="HTMLCount" hidden="1">54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$44</definedName>
-    <definedName name="Print_Title" localSheetId="6">#REF!</definedName>
     <definedName name="Print_Title" localSheetId="5">#REF!</definedName>
     <definedName name="Print_Title" localSheetId="4">#REF!</definedName>
+    <definedName name="Print_Title" localSheetId="3">#REF!</definedName>
+    <definedName name="Print_Title" localSheetId="6">#REF!</definedName>
     <definedName name="Print_Title" localSheetId="2">#REF!</definedName>
     <definedName name="Print_Title" localSheetId="1">#REF!</definedName>
-    <definedName name="Print_Title" localSheetId="3">#REF!</definedName>
     <definedName name="Print_Title">#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="6">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIIRAI_3" localSheetId="5">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIIRAI_3" localSheetId="4">[2]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="3">[2]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="6">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIIRAI_3" localSheetId="2">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIIRAI_3" localSheetId="1">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="3">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIIRAI_3">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIRAI_31" localSheetId="6">#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="5">#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="4">#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="3">#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="6">#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="2">#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="1">#REF!</definedName>
-    <definedName name="S_GAIRAI_31" localSheetId="3">#REF!</definedName>
     <definedName name="S_GAIRAI_31">#REF!</definedName>
-    <definedName name="SSGAIIRAI_3" localSheetId="6">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="5">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="4">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="3">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="6">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="2">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="1">#REF!</definedName>
-    <definedName name="SSGAIIRAI_3" localSheetId="3">#REF!</definedName>
     <definedName name="SSGAIIRAI_3">#REF!</definedName>
-    <definedName name="STGAIIRAI_3" localSheetId="6">#REF!</definedName>
     <definedName name="STGAIIRAI_3" localSheetId="5">#REF!</definedName>
     <definedName name="STGAIIRAI_3" localSheetId="4">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="3">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="6">#REF!</definedName>
     <definedName name="STGAIIRAI_3" localSheetId="2">#REF!</definedName>
     <definedName name="STGAIIRAI_3" localSheetId="1">#REF!</definedName>
-    <definedName name="STGAIIRAI_3" localSheetId="3">#REF!</definedName>
     <definedName name="STGAIIRAI_3">#REF!</definedName>
-    <definedName name="T_TANKA_F" localSheetId="6">#REF!</definedName>
     <definedName name="T_TANKA_F" localSheetId="5">#REF!</definedName>
     <definedName name="T_TANKA_F" localSheetId="4">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="3">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="6">#REF!</definedName>
     <definedName name="T_TANKA_F" localSheetId="2">#REF!</definedName>
     <definedName name="T_TANKA_F" localSheetId="1">#REF!</definedName>
-    <definedName name="T_TANKA_F" localSheetId="3">#REF!</definedName>
     <definedName name="T_TANKA_F">#REF!</definedName>
     <definedName name="tttt" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="tttt" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG." hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" hidden="1">#REF!</definedName>
     <definedName name="あ" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
     <definedName name="あ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="179">
   <si>
     <t>画面名</t>
   </si>
@@ -1020,47 +1020,11 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>更新ボタンチェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リスト行ごとに更新ボタンを押したらリスト情報を更新可能。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リストテーブルの中に行ごとの更新ボタンをクリック。
-</t>
-  </si>
-  <si>
-    <t>チェック結果が画面に表示される。リストのデータが更新可能。
-参照：リスト行ごと更新画面のデータはデータベースの社員のデータ</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>新規ボタンチェック</t>
-  </si>
-  <si>
-    <t>登録ボタンチェック</t>
-  </si>
-  <si>
-    <t>登録可能な登録ボタン。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-①更新画面の左側にある登録ボタンクリック。
-②新規画面の左側にある登録ボタンクリック。</t>
-  </si>
-  <si>
-    <t>新規作成したデータが画面上にもデータベースにも保存できる。</t>
-  </si>
-  <si>
     <t>全エラーメッセージチェック</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
     </rPh>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>操作によってそれぞれのエラーメッセージが表示される。</t>
   </si>
   <si>
     <t>基本給マスタ機能画面</t>
@@ -1267,12 +1231,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>③更新画面表示</t>
-  </si>
-  <si>
-    <t>④新規画面表示</t>
-  </si>
-  <si>
     <t>対象テーブル：employee</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -1426,10 +1384,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>No4</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>20210101</t>
   </si>
   <si>
@@ -1509,16 +1463,6 @@
   </si>
   <si>
     <t>20220203</t>
-  </si>
-  <si>
-    <t>更新後の値</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">	①「社員」項目のプルーダウンに社員IDのリストが表示される。                     参照　テストデータ_社員リスト　シート。
@@ -1542,186 +1486,348 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>②検索ボタンを押したときの基本給管理リスト画面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>①初期表示（基本給管理画面）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ｍ_basesalary</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>入力した値</t>
+    <t>baseSalary</t>
+  </si>
+  <si>
+    <t>minusHour</t>
+  </si>
+  <si>
+    <t>plusHour</t>
+  </si>
+  <si>
+    <t>wkPeriodFrom</t>
+  </si>
+  <si>
+    <t>wkPeriodTo</t>
+  </si>
+  <si>
+    <t>baseSalaryID</t>
+  </si>
+  <si>
+    <t>20220509</t>
+  </si>
+  <si>
+    <t>20220518</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>20220519</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>基本給マスタ機能の結合テスト仕様書作成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>①画面</t>
+    <t>更新画面にてエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>更新画面にて、社員IDが空のままに、「登録」ボタンをクリック</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>②DB</t>
+    <t>更新画面にて、基本給が空のままに、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面にて、不足減単価(h)が空のままに、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面にて、残業加単価(h)が空のままに、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面にて、稼働期間Fromが空のままに、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面にて、稼働期間Toが空のままに、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面にて、利用ステータスが空のままに、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社員IDを入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本給を入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”不足減単価(h)を入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”残業加単価(h)を入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”稼働期間Fromを入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”稼働期間Toを入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”利用ステータスを入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全エラーメッセージチェック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新画面にてエラーメッセージ表示
+</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>①社員IDを入力してください。”を表示します。</t>
-  </si>
-  <si>
-    <t>①基本給料一覧画面の社員ID項目が空時</t>
+    <t>基本給情報更新画面の上の部分に下記メッセージが表示される：
+”社員IDを入力してください。”
+”基本給を入力してください。”
+”不足減単価(h)を入力してください。”
+”残業加単価(h)を入力してください。”
+”稼働期間Fromを入力してください。”
+”稼働期間Toを入力してください。”
+”利用ステータスを入力してください。”</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>②基本給を入力してください。”を表示します。</t>
+    <t>更新画面にて、下記項目が空のままに、「登録」ボタンをクリック
+①社員ID
+②基本給
+③不足減単価(h)
+④残業加単価(h)
+⑤稼働期間From
+⑥稼働期間To
+⑦利用ステータス</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>②基本給料更新画面の基本給項目が空時</t>
+    <t>No5</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>入力値</t>
+  </si>
+  <si>
+    <t>社員ID</t>
+  </si>
+  <si>
+    <t>社員1</t>
+  </si>
+  <si>
+    <t>進行ステータス</t>
+  </si>
+  <si>
+    <t>基本給ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>③”基本給に数値のみを入力してください。”を表示します。</t>
+    <t>基本給</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>③基本給料更新画面の基本給項目の入力値は数値ではない場合</t>
+    <t>残業不足時間</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>④”不足減単価(h)を入力してください。”を表示します。</t>
+    <t>残業時間</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>④基本給料更新画面の不足減単価(h)が空時</t>
+    <t>稼働時間From</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑤”不足減単価(h)に数値のみを入力してください。”を表示します</t>
+    <t>稼働時間To</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑤基本給料更新画面の不足減単価(h)の入力値は数値ではない場合</t>
+    <t>する</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑥”残業加単価(h)を入力してください。”を表示します。</t>
+    <t>作成日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑥基本給料更新画面の残業加単価(h)が空時</t>
+    <t>更新日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑦”残業加単価(h)に数値のみを入力してください。”を表示します</t>
+    <t>更新後の値</t>
+  </si>
+  <si>
+    <t>画面</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑦基本給料更新画面の残業加単価(h)の入力値は数値ではない場合</t>
+    <t>DB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑧”稼働期間Fromを入力してください。”を表示します。</t>
+    <t>●S001は選択された基本給ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑧基本給料更新画面の稼働期間Fromが空時</t>
+    <t>baseSalaryID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑨”稼働期間Fromに数値のみを入力してください。”を表示します</t>
+    <t>S002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑨基本給料更新画面の稼働期間Fromの入力値は数値ではない場合</t>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aseSalary</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑩”稼働期間Toを入力してください。”を表示します。</t>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inusHour</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑩基本給料更新画面の稼働期間Toが空時</t>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lusHour</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑪”稼働期間Toに数値のみを入力してください。”を表示します</t>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kPeriodFrom</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑪基本給料更新画面の稼働期間Toの入力値は数値ではない場合</t>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kPeriodTo</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑫”利用ステータスを入力してください。”を表示します。</t>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsertDate</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⑫基本給料更新画面の利用ステータス項目が空時</t>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pdateDate</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>①社員の基本給情報が新規可能。
-	②新規ボタン押したら契約ID は
-	　最大契約ID+1を画面に表示。</t>
+    <t>●　status(進行ステータス）　0:進行中、1:終了(ラジオボタン）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-	①初期表示画面の左側にある新規ボタンクリック。
-	②基本給情報更新画面の左側にある新規ボタンクリック。</t>
+    <t>新規追加後の値</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>　チェック結果が画面に表示される。
-	　基本給情報データが新規作成できる。
-	　最大基本給ID+1を画面に表示される。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseSalary</t>
-  </si>
-  <si>
-    <t>minusHour</t>
-  </si>
-  <si>
-    <t>plusHour</t>
-  </si>
-  <si>
-    <t>wkPeriodFrom</t>
-  </si>
-  <si>
-    <t>wkPeriodTo</t>
-  </si>
-  <si>
-    <t>baseSalaryID</t>
-  </si>
-  <si>
-    <t>20220509</t>
-  </si>
-  <si>
-    <t>20220518</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>20220519</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
     <t>S003</t>
-  </si>
-  <si>
-    <t>基本給マスタ機能の結合テスト仕様書作成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,39 +1932,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1869,21 +1942,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="22"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1921,8 +1979,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1944,6 +2009,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,11 +2195,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2194,9 +2265,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1">
@@ -2238,61 +2306,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2349,55 +2390,52 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2421,280 +2459,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53731</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100096</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>143003</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>170961</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EA4B7B-C444-D3DC-381E-A59FB818BCBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53731" y="451788"/>
-          <a:ext cx="9907349" cy="2356865"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>328878</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4884</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC348E9F-3BAD-2A14-B781-F031F240ECBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="73269" y="3441476"/>
-          <a:ext cx="10694032" cy="3045293"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>88606</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>30268</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581270</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>150915</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9BD1EF-EE2A-38A8-540B-770B98F14537}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="88606" y="7420691"/>
-          <a:ext cx="6193010" cy="4868493"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>36244</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>39077</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>799969</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>88982</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC26AD96-CE07-B0CD-67C4-62A4CC9E5665}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36244" y="13056577"/>
-          <a:ext cx="6464071" cy="4621905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>187572</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>58614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>155531</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB7C85B-C46D-71C3-C781-8C5883076CA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="187572" y="937845"/>
-          <a:ext cx="4061267" cy="3699419"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>34193</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>397874</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131884</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7B1929-5976-75FA-A093-D1213661026B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5446347" y="950481"/>
-          <a:ext cx="8413527" cy="764019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2709,8 +2473,8 @@
       <sheetName val="CODE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -2738,16 +2502,16 @@
       <sheetName val="SheetWaku"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2763,10 +2527,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2782,10 +2546,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3163,230 +2927,230 @@
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="73" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="32"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="31"/>
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="29.5">
       <c r="A16" s="8"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A17" s="8"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="56" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="48"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="61" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="53"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="66"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A21" s="8"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="18.5">
       <c r="A22" s="8"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="56" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A23" s="8"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="67" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="69"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="59"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A24" s="8"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="62"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A25" s="8"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="31"/>
       <c r="X25" s="7"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="13">
@@ -3597,52 +3361,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.5">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="19" thickBot="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19" thickTop="1">
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>44699</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.5">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="89">
+      <c r="C5" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="44">
         <v>44700</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3729,10 +3493,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
@@ -3742,39 +3506,39 @@
     <col min="3" max="3" width="31.58203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="40.4140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="32.08203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="44" style="65" customWidth="1"/>
     <col min="7" max="7" width="12.58203125" style="14" customWidth="1"/>
     <col min="8" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.5">
       <c r="A2" s="16"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="132" customHeight="1">
+    <row r="3" spans="1:9" ht="108.5" customHeight="1">
       <c r="B3" s="19">
         <v>1</v>
       </c>
@@ -3782,53 +3546,57 @@
         <v>18</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>126</v>
+        <v>28</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="132" customHeight="1">
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="49" customHeight="1">
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="132" customHeight="1">
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1">
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="74">
       <c r="B6" s="19">
@@ -3838,303 +3606,219 @@
         <v>20</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="108.5" customHeight="1">
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" s="67" customFormat="1" ht="169.5" customHeight="1">
       <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="117" customHeight="1">
+      <c r="C7" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="44.5" customHeight="1">
       <c r="B8" s="19">
         <v>6</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" s="24" customFormat="1" ht="18.5">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="99.65" customHeight="1">
+        <v>137</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="37">
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="37">
       <c r="B10" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>26</v>
+      <c r="D10" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="86.15" customHeight="1">
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="37">
       <c r="B11" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="141" customHeight="1">
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="37">
       <c r="B12" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="44.5" customHeight="1">
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="37">
       <c r="B13" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.5">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="74" t="s">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="37">
+      <c r="B14" s="19">
+        <v>12</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="36.5" customHeight="1">
-      <c r="B15" s="75"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="28">
-      <c r="B16" s="75"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" ht="28">
-      <c r="B17" s="75"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9" ht="28">
-      <c r="B18" s="75"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:9" ht="28">
-      <c r="B19" s="75"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="2:9" ht="28">
-      <c r="B20" s="75"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="2:9" ht="28">
-      <c r="B21" s="75"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:9" ht="28">
-      <c r="B22" s="75"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="2:9" ht="28">
-      <c r="B23" s="75"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="2:9" ht="28">
-      <c r="B24" s="75"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+    <row r="15" spans="1:9" ht="83" customHeight="1">
+      <c r="B15" s="19">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="66.5" customHeight="1">
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4143,482 +3827,795 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34464E02-B67B-48A3-8F6F-51EC63093C5B}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:H71"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1640625" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="8.1640625" style="36"/>
-    <col min="3" max="3" width="17.33203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="20.08203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.4140625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="8.1640625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="22" spans="1:8" ht="27.5">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:8" ht="31.15" customHeight="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="47"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.15" customHeight="1">
-      <c r="B26" s="47"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="47"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
-      <c r="B28" s="47"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.5">
-      <c r="B29" s="47"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="B30" s="47"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="47"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="47"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="47"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="47"/>
-    </row>
-    <row r="35" spans="1:2" ht="16.149999999999999" customHeight="1">
-      <c r="B35" s="47"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5FFE72-C2B2-412B-BE39-05BE45E2FDF8}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:T7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="36" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.4140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="36"/>
+    <col min="1" max="1" width="12.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.4140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="37" customFormat="1" ht="18.5">
+      <c r="A4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="72" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="52" customFormat="1" ht="13">
-      <c r="A4" s="52" t="s">
+      <c r="M4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="N4" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="O4" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="P4" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="Q4" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="R4" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="S4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="T4" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="53" t="s">
+    </row>
+    <row r="5" spans="1:20" s="37" customFormat="1" ht="18.5">
+      <c r="A5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="B5" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="C5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="D5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="E5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="F5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="H5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="I5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="53" t="s">
+      <c r="J5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="K5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="L5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="M5" s="40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="52" customFormat="1" ht="13">
-      <c r="A5" s="52" t="s">
+      <c r="N5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="O5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="Q5" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="R5" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="S5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="54" t="s">
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="1:20" s="37" customFormat="1" ht="18.5">
+      <c r="A6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="C6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="D6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+    </row>
+    <row r="7" spans="1:20" s="37" customFormat="1" ht="18.5">
+      <c r="A7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="B7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="C7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="D7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A891B25-B8D3-4D66-A329-391D0B017A15}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A2:T20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.4140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="B2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="C2" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="37" customFormat="1">
+      <c r="A3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="37" customFormat="1">
+      <c r="A4" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="39">
+        <v>210000</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>160</v>
+      </c>
+      <c r="F4" s="39">
+        <v>185</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="37" customFormat="1">
+      <c r="A5" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="39">
+        <v>100</v>
+      </c>
+      <c r="C5" s="39">
+        <v>200</v>
+      </c>
+      <c r="D5" s="39">
+        <v>300</v>
+      </c>
+      <c r="E5" s="39">
+        <v>400</v>
+      </c>
+      <c r="F5" s="39">
+        <v>500</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="A6" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>4</v>
+      </c>
+      <c r="D6" s="39">
+        <v>5</v>
+      </c>
+      <c r="E6" s="39">
+        <v>2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>3</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="M6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="54" t="s">
+      <c r="N6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="Q6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="B7" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="42">
+        <v>700000</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="42">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="54" t="s">
+      <c r="O7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="R7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="T5" s="54"/>
-    </row>
-    <row r="6" spans="1:20" s="52" customFormat="1" ht="13">
-      <c r="A6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="54" t="s">
+      <c r="T7" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="B8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="42">
+        <v>650000</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="42">
+        <v>4333</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-    </row>
-    <row r="7" spans="1:20" s="52" customFormat="1" ht="13">
-      <c r="A7" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
+      <c r="K8" s="42">
+        <v>3250</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="B9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="42">
+        <v>580000</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="42">
+        <v>3866</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="42">
+        <v>2900</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="B10" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="42">
+        <v>580000</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="42">
+        <v>3866</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="42">
+        <v>2900</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="B11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="42">
+        <v>450000</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="42">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="42">
+        <v>2250</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="37" customFormat="1" hidden="1">
+      <c r="B12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="42">
+        <v>660000</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="42">
+        <v>4400</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="42">
+        <v>3300</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="43"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4627,623 +4624,426 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A891B25-B8D3-4D66-A329-391D0B017A15}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BADB41-B05D-4F23-A589-458D6C6F4350}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.58203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="24"/>
+    <col min="1" max="1" width="8.6640625" style="35"/>
+    <col min="2" max="2" width="18.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="35"/>
+    <col min="5" max="5" width="15.83203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="35"/>
+    <col min="10" max="10" width="10.4140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
-      <c r="B2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="82" customFormat="1">
-      <c r="A3" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="83" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.5">
+      <c r="B5" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="E5" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="77">
+        <v>100</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="75">
+        <v>200</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="77">
+        <v>300</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="75">
+        <v>400</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="75">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="75">
+        <v>500</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="75">
+        <v>20220518</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="75">
+        <v>20220518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="77">
+        <v>20220519</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="75">
+        <v>20220519</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="82" customFormat="1">
-      <c r="A4" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="84">
-        <v>210000</v>
-      </c>
-      <c r="C4" s="84">
+      <c r="E16" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="75">
         <v>0</v>
       </c>
-      <c r="D4" s="84">
-        <v>0</v>
-      </c>
-      <c r="E4" s="84">
-        <v>160</v>
-      </c>
-      <c r="F4" s="84">
-        <v>185</v>
-      </c>
-      <c r="G4" s="84">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="82" customFormat="1">
-      <c r="A5" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="84">
-        <v>100</v>
-      </c>
-      <c r="C5" s="84">
-        <v>200</v>
-      </c>
-      <c r="D5" s="84">
-        <v>300</v>
-      </c>
-      <c r="E5" s="84">
-        <v>400</v>
-      </c>
-      <c r="F5" s="84">
-        <v>500</v>
-      </c>
-      <c r="G5" s="84">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="A6" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="84">
-        <v>1</v>
-      </c>
-      <c r="C6" s="84">
-        <v>4</v>
-      </c>
-      <c r="D6" s="84">
-        <v>5</v>
-      </c>
-      <c r="E6" s="84">
-        <v>2</v>
-      </c>
-      <c r="F6" s="84">
-        <v>3</v>
-      </c>
-      <c r="G6" s="84">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="B7" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="87">
-        <v>700000</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="87">
-        <v>0</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="87">
-        <v>0</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="B8" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="87">
-        <v>650000</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="87">
-        <v>4333</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="87">
-        <v>3250</v>
-      </c>
-      <c r="L8" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R8" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="B9" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="87">
-        <v>580000</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="87">
-        <v>3866</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="87">
-        <v>2900</v>
-      </c>
-      <c r="L9" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T9" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="B10" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="87">
-        <v>580000</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="87">
-        <v>3866</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="87">
-        <v>2900</v>
-      </c>
-      <c r="L10" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T10" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="B11" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="87">
-        <v>450000</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="87">
-        <v>3000</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="87">
-        <v>2250</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="82" customFormat="1" hidden="1">
-      <c r="B12" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="87">
-        <v>660000</v>
-      </c>
-      <c r="G12" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="87">
-        <v>4400</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="87">
-        <v>3300</v>
-      </c>
-      <c r="L12" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="T12" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="82"/>
-      <c r="B19" s="88"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="88"/>
+      <c r="E18" s="35" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BADB41-B05D-4F23-A589-458D6C6F4350}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="B3:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE612D0-8DA1-4041-BF3E-DA03516D79DB}">
+  <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="36"/>
-    <col min="3" max="3" width="10.4140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.6640625" style="36"/>
-    <col min="10" max="10" width="10.4140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="36"/>
+    <col min="1" max="1" width="8.6640625" style="35"/>
+    <col min="2" max="2" width="18.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="35"/>
+    <col min="5" max="5" width="15.83203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="35"/>
+    <col min="10" max="10" width="10.4140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="51"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="G4" s="90"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:10" ht="18.5">
-      <c r="B5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>125</v>
-      </c>
+      <c r="B5" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="E5" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="I6" s="51"/>
+      <c r="B6" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="77">
+        <v>1</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="75">
+        <v>2</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="77">
+        <v>3</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="75">
+        <v>4</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="75">
+        <v>5</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="75">
+        <v>20220518</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="75">
+        <v>20220518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="77">
+        <v>20220519</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="75">
+        <v>20220519</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
+++ b/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B3AA6-5CEA-439F-883C-7B904DF4AA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E353C-23E8-428A-833F-F910351B3B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="185">
   <si>
     <t>画面名</t>
   </si>
@@ -1539,10 +1539,6 @@
     <t>更新画面にてエラーメッセージ表示</t>
   </si>
   <si>
-    <t>更新画面にて、社員IDが空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>更新画面にて、基本給が空のままに、「登録」ボタンをクリック</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1563,14 +1559,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>更新画面にて、利用ステータスが空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>社員IDを入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>基本給を入力してください。”を表示します。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1588,10 +1576,6 @@
   </si>
   <si>
     <t>”稼働期間Toを入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>”利用ステータスを入力してください。”を表示します。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1611,17 +1595,6 @@
 ”稼働期間Fromを入力してください。”
 ”稼働期間Toを入力してください。”
 ”利用ステータスを入力してください。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新画面にて、下記項目が空のままに、「登録」ボタンをクリック
-①社員ID
-②基本給
-③不足減単価(h)
-④残業加単価(h)
-⑤稼働期間From
-⑥稼働期間To
-⑦利用ステータス</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1828,6 +1801,57 @@
   </si>
   <si>
     <t>S003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”基本給に数値のみを入力してください。”を表示します。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”不足減単価(h)に数値のみを入力してください。”を表示します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”残業加単価(h)に数字のみを入力してください。”を表示します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”稼働期間Fromに数値のみを入力してください。”を表示します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面の残業加単価(h)の入力値は数値ではない場合、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面の不足減単価(h)の入力値は数値ではない場合、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面の基本給項目の入力値は数値ではない場合、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面の稼働期間Fromの入力値は数値ではない場合、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>”稼働期間Toに数値のみを入力してください。”を表示します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面の稼働期間Toの入力値は数値ではない場合、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新画面にて、下記項目が数字ではない場合に、「登録」ボタンをクリック
+①社員ID
+②基本給
+③不足減単価(h)
+④残業加単価(h)
+⑤稼働期間From
+⑥稼働期間To
+⑦利用ステータス</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2249,9 +2273,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2336,6 +2357,54 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2389,54 +2458,6 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2473,8 +2494,8 @@
       <sheetName val="CODE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -2502,16 +2523,16 @@
       <sheetName val="SheetWaku"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2527,10 +2548,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2546,10 +2567,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2927,230 +2948,230 @@
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="63" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="31"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="30"/>
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="29.5">
       <c r="A16" s="8"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A17" s="8"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="46" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="48"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="63"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="51" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A21" s="8"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="18.5">
       <c r="A22" s="8"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="65"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A23" s="8"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="57" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="59"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="74"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A24" s="8"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="62"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="77"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A25" s="8"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="30"/>
       <c r="X25" s="7"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="13">
@@ -3361,62 +3382,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.5">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="19" thickBot="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19" thickTop="1">
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>44699</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.5">
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>44700</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18.5">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="15"/>
@@ -3493,332 +3514,392 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:I16"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.9140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="4.9140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="31.58203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="40.4140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="44" style="65" customWidth="1"/>
+    <col min="6" max="6" width="44" style="46" customWidth="1"/>
     <col min="7" max="7" width="12.58203125" style="14" customWidth="1"/>
     <col min="8" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.5">
       <c r="A2" s="16"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108.5" customHeight="1">
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="49" customHeight="1">
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="26"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1">
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="26"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="74">
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" s="67" customFormat="1" ht="169.5" customHeight="1">
-      <c r="B7" s="19">
+      <c r="H6" s="19"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" s="48" customFormat="1" ht="169.5" customHeight="1">
+      <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:9" ht="44.5" customHeight="1">
-      <c r="B8" s="19">
+      <c r="C7" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="37">
+      <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="37">
-      <c r="B9" s="19">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="38" customHeight="1">
+      <c r="B9" s="18">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>138</v>
+      <c r="E9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="37">
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>139</v>
+      <c r="E10" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="37">
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>140</v>
+      <c r="E11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="37">
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>141</v>
+      <c r="E12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="37">
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>135</v>
+      <c r="E13" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="37">
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>136</v>
+      <c r="E14" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="83" customHeight="1">
-      <c r="B15" s="19">
+    <row r="15" spans="1:9" ht="37">
+      <c r="B15" s="18">
         <v>13</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="37">
+      <c r="B16" s="18">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" ht="37">
+      <c r="B17" s="18">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" ht="83" customHeight="1">
+      <c r="B18" s="18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="1:9" ht="66.5" customHeight="1">
-      <c r="B16" s="19">
-        <v>14</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" ht="66.5" customHeight="1">
+      <c r="B19" s="18">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="26"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3837,214 +3918,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="35" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.4140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="35"/>
+    <col min="1" max="1" width="12.75" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.4140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="37" customFormat="1" ht="18.5">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:20" s="36" customFormat="1" ht="18.5">
+      <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="37" customFormat="1" ht="18.5">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:20" s="36" customFormat="1" ht="18.5">
+      <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="1:20" s="37" customFormat="1" ht="18.5">
-      <c r="A6" s="37" t="s">
+      <c r="T5" s="39"/>
+    </row>
+    <row r="6" spans="1:20" s="36" customFormat="1" ht="18.5">
+      <c r="A6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row r="7" spans="1:20" s="37" customFormat="1" ht="18.5">
-      <c r="A7" s="37" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="1:20" s="36" customFormat="1" ht="18.5">
+      <c r="A7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4063,559 +4144,559 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="23"/>
+    <col min="1" max="1" width="13.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.4140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="37" customFormat="1">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:20" s="36" customFormat="1">
+      <c r="A3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="37" customFormat="1">
-      <c r="A4" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="39">
+    <row r="4" spans="1:20" s="36" customFormat="1">
+      <c r="A4" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="38">
         <v>210000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>0</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>160</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>185</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <v>0</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="37" customFormat="1">
-      <c r="A5" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="39">
+    <row r="5" spans="1:20" s="36" customFormat="1">
+      <c r="A5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="38">
         <v>100</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>200</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>300</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>400</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>500</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>0</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="A6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>4</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>5</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>0</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="B7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>700000</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>0</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <v>0</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="T7" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="B8" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>650000</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>4333</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <v>3250</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="T8" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="B9" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>580000</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>3866</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>2900</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="40" t="s">
+      <c r="Q9" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="40" t="s">
+      <c r="S9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="B10" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>580000</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="41">
         <v>3866</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <v>2900</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="B11" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>450000</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <v>3000</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>2250</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="40" t="s">
+      <c r="R11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="S11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="40" t="s">
+      <c r="T11" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="37" customFormat="1" hidden="1">
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="1:20" s="36" customFormat="1" hidden="1">
+      <c r="B12" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>660000</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <v>4400</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>3300</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q12" s="40" t="s">
+      <c r="Q12" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S12" s="40" t="s">
+      <c r="S12" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4634,199 +4715,199 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="35"/>
-    <col min="2" max="2" width="18.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="35"/>
-    <col min="5" max="5" width="15.83203125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="13.9140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="35"/>
-    <col min="10" max="10" width="10.4140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="35"/>
+    <col min="1" max="1" width="8.6640625" style="34"/>
+    <col min="2" max="2" width="18.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="34"/>
+    <col min="5" max="5" width="15.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="34"/>
+    <col min="10" max="10" width="10.4140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:10" ht="18.5">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="E5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="58">
+        <v>100</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="E5" s="35" t="s">
+      <c r="F9" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="56">
+        <v>200</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="74" t="s">
+      <c r="F10" s="56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="58">
+        <v>300</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="56">
+        <v>400</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C13" s="56">
+        <v>500</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="66" t="s">
+      <c r="F13" s="56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="56">
+        <v>20220518</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="56">
+        <v>20220518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="58">
+        <v>20220519</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="56">
+        <v>20220519</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="77">
-        <v>100</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="75">
-        <v>200</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="75">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="77">
-        <v>300</v>
-      </c>
-      <c r="E11" s="79" t="s">
+      <c r="E16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="F11" s="75">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="75">
-        <v>400</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="75">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="75">
-        <v>500</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="75">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="75">
-        <v>20220518</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="75">
-        <v>20220518</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="77">
-        <v>20220519</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="75">
-        <v>20220519</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4840,205 +4921,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE612D0-8DA1-4041-BF3E-DA03516D79DB}">
   <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="35"/>
-    <col min="2" max="2" width="18.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="35"/>
-    <col min="5" max="5" width="15.83203125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="13.9140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="35"/>
-    <col min="10" max="10" width="10.4140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="35"/>
+    <col min="1" max="1" width="8.6640625" style="34"/>
+    <col min="2" max="2" width="18.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="34"/>
+    <col min="5" max="5" width="15.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="34"/>
+    <col min="10" max="10" width="10.4140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:10" ht="18.5">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="E5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="58">
+        <v>1</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="E5" s="35" t="s">
+      <c r="F9" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="74" t="s">
+      <c r="F10" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="58">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="56">
+        <v>4</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="66" t="s">
+      <c r="C13" s="56">
+        <v>5</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="56">
+        <v>20220518</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="56">
+        <v>20220518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="58">
+        <v>20220519</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="56">
+        <v>20220519</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="77">
-        <v>1</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="75">
-        <v>2</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="77">
-        <v>3</v>
-      </c>
-      <c r="E11" s="79" t="s">
+      <c r="E16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="F11" s="75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="75">
-        <v>4</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="75">
-        <v>5</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="75">
-        <v>20220518</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="75">
-        <v>20220518</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="77">
-        <v>20220519</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="75">
-        <v>20220519</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
+++ b/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E353C-23E8-428A-833F-F910351B3B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5898848A-F160-486A-BDCB-9BF3723F44E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
   <si>
     <t>画面名</t>
   </si>
@@ -998,9 +998,6 @@
       <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>　</t>
   </si>
   <si>
     <t>更新</t>
@@ -1852,6 +1849,26 @@
 ⑤稼働期間From
 ⑥稼働期間To
 ⑦利用ステータス</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫曄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一１回テスト</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二回テスト</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2223,7 +2240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2458,6 +2475,12 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3422,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="43">
         <v>44700</v>
@@ -3514,10 +3537,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:I19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
@@ -3529,10 +3552,26 @@
     <col min="5" max="5" width="46.83203125" style="14" customWidth="1"/>
     <col min="6" max="6" width="44" style="46" customWidth="1"/>
     <col min="7" max="7" width="12.58203125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.25" style="14"/>
+    <col min="8" max="8" width="8.25" style="14"/>
+    <col min="9" max="9" width="11.4140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.25" style="14"/>
+    <col min="12" max="12" width="11.4140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18.5">
+    <row r="1" spans="1:12">
+      <c r="G1" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.5">
       <c r="A2" s="16"/>
       <c r="B2" s="23" t="s">
         <v>6</v>
@@ -3558,8 +3597,17 @@
       <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="108.5" customHeight="1">
+      <c r="J2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="108.5" customHeight="1">
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -3567,19 +3615,28 @@
         <v>18</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="49" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="49" customHeight="1">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -3587,19 +3644,28 @@
         <v>18</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1">
+      <c r="G4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" customHeight="1">
       <c r="B5" s="18">
         <v>3</v>
       </c>
@@ -3607,19 +3673,28 @@
         <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="74">
+      <c r="G5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="74">
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -3627,281 +3702,415 @@
         <v>20</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" s="48" customFormat="1" ht="169.5" customHeight="1">
+        <v>184</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="48" customFormat="1" ht="169.5" customHeight="1">
       <c r="B7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="E7" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="G7" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J7" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="37">
+      <c r="K7" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="52">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="37">
       <c r="B8" s="18">
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>130</v>
-      </c>
       <c r="F8" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="38" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="38" customHeight="1">
       <c r="B9" s="18">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="37">
+        <v>173</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="37">
       <c r="B10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="37">
+        <v>135</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="37">
       <c r="B11" s="18">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="37">
+        <v>174</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="37">
       <c r="B12" s="18">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="37">
+        <v>136</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="37">
       <c r="B13" s="18">
         <v>11</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="37">
+        <v>175</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="37">
       <c r="B14" s="18">
         <v>12</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="37">
+        <v>137</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="37">
       <c r="B15" s="18">
         <v>13</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="37">
+        <v>176</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="37">
       <c r="B16" s="18">
         <v>14</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" ht="37">
+        <v>138</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="37">
       <c r="B17" s="18">
         <v>15</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9" ht="83" customHeight="1">
+        <v>181</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="83" customHeight="1">
       <c r="B18" s="18">
         <v>16</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="2:9" ht="66.5" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="66.5" customHeight="1">
       <c r="B19" s="18">
         <v>17</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="25">
+        <v>44704</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3942,143 +4151,143 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="36" customFormat="1" ht="18.5">
       <c r="A4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="C4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="D4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="E4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="F4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="G4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="H4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="I4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="J4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="K4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="L4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="M4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="N4" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="O4" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="P4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="Q4" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="53" t="s">
+      <c r="R4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="S4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="T4" s="53" t="s">
         <v>60</v>
-      </c>
-      <c r="T4" s="53" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="36" customFormat="1" ht="18.5">
       <c r="A5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="F5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="H5" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="I5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="J5" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="K5" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="L5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="M5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="N5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="O5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="39" t="s">
+      <c r="Q5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="R5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="S5" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="T5" s="39"/>
     </row>
     <row r="6" spans="1:20" s="36" customFormat="1" ht="18.5">
       <c r="A6" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>80</v>
-      </c>
       <c r="D6" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -4099,16 +4308,16 @@
     </row>
     <row r="7" spans="1:20" s="36" customFormat="1" ht="18.5">
       <c r="A7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>83</v>
-      </c>
       <c r="D7" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -4163,50 +4372,50 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="36" customFormat="1">
       <c r="A3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="36" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="38">
         <v>210000</v>
@@ -4227,21 +4436,21 @@
         <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="36" customFormat="1">
       <c r="A5" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="38">
         <v>100</v>
@@ -4262,21 +4471,21 @@
         <v>0</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="A6" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -4297,397 +4506,397 @@
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="N6" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="Q6" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="R6" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="39" t="s">
+      <c r="S6" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T6" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="B7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="E7" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="41">
         <v>700000</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="41">
         <v>0</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="41">
         <v>0</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="Q7" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="R7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="39" t="s">
+      <c r="S7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T7" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="B8" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>100</v>
       </c>
       <c r="F8" s="41">
         <v>650000</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="41">
         <v>4333</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="41">
         <v>3250</v>
       </c>
       <c r="L8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="N8" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="Q8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="R8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="39" t="s">
+      <c r="S8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T8" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="41">
         <v>580000</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="41">
         <v>3866</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" s="41">
         <v>2900</v>
       </c>
       <c r="L9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="N9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="Q9" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="R9" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="39" t="s">
+      <c r="S9" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T9" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="B10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>105</v>
-      </c>
       <c r="E10" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="41">
         <v>580000</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10" s="41">
         <v>3866</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="41">
         <v>2900</v>
       </c>
       <c r="L10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="N10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="Q10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="R10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="39" t="s">
+      <c r="S10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T10" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="B11" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>107</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="41">
         <v>450000</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="41">
         <v>3000</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="41">
         <v>2250</v>
       </c>
       <c r="L11" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="N11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="Q11" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="R11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="39" t="s">
+      <c r="S11" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T11" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="36" customFormat="1" hidden="1">
       <c r="B12" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="41">
         <v>660000</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="41">
         <v>4400</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="41">
         <v>3300</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N12" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="R12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="39" t="s">
+      <c r="S12" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="T12" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4738,67 +4947,67 @@
     </row>
     <row r="5" spans="2:10" ht="18.5">
       <c r="B5" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>145</v>
-      </c>
       <c r="E6" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>147</v>
-      </c>
       <c r="E8" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="58">
         <v>100</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="56">
         <v>100</v>
@@ -4806,13 +5015,13 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="56">
         <v>200</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="56">
         <v>200</v>
@@ -4820,13 +5029,13 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="58">
         <v>300</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="56">
         <v>300</v>
@@ -4834,13 +5043,13 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="56">
         <v>400</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="56">
         <v>400</v>
@@ -4848,13 +5057,13 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="56">
         <v>500</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="56">
         <v>500</v>
@@ -4862,13 +5071,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="56">
         <v>20220518</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="56">
         <v>20220518</v>
@@ -4876,13 +5085,13 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="58">
         <v>20220519</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="56">
         <v>20220519</v>
@@ -4890,13 +5099,13 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="56">
         <v>0</v>
@@ -4904,10 +5113,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4950,67 +5159,67 @@
     </row>
     <row r="5" spans="2:10" ht="18.5">
       <c r="B5" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>145</v>
-      </c>
       <c r="E6" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>147</v>
-      </c>
       <c r="E8" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="58">
         <v>1</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="56">
         <v>1</v>
@@ -5018,13 +5227,13 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="56">
         <v>2</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="56">
         <v>2</v>
@@ -5032,13 +5241,13 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="58">
         <v>3</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="56">
         <v>3</v>
@@ -5046,13 +5255,13 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="56">
         <v>4</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="56">
         <v>4</v>
@@ -5060,13 +5269,13 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="56">
         <v>5</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="56">
         <v>5</v>
@@ -5074,13 +5283,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="56">
         <v>20220518</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="56">
         <v>20220518</v>
@@ -5088,13 +5297,13 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="58">
         <v>20220519</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="56">
         <v>20220519</v>
@@ -5102,13 +5311,13 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="56">
         <v>0</v>
@@ -5116,10 +5325,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
+++ b/DOC/結合テスト/emsm基本給_マスタ機能結合テスト.xlsx
@@ -29,872 +29,872 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
+    <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
+    <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
+    <definedName name="_ＩＯ２" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="_ＩＯ２" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="1" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="2" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="3" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="4" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="5" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" localSheetId="6" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__ＩＯ２" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="__a1" localSheetId="1">#REF!</definedName>
+    <definedName name="__a1" localSheetId="2">#REF!</definedName>
+    <definedName name="__a1" localSheetId="3">#REF!</definedName>
+    <definedName name="__a1" localSheetId="4">#REF!</definedName>
     <definedName name="__a1" localSheetId="5">#REF!</definedName>
-    <definedName name="__a1" localSheetId="4">#REF!</definedName>
-    <definedName name="__a1" localSheetId="3">#REF!</definedName>
     <definedName name="__a1" localSheetId="6">#REF!</definedName>
-    <definedName name="__a1" localSheetId="2">#REF!</definedName>
-    <definedName name="__a1" localSheetId="1">#REF!</definedName>
     <definedName name="__a1">#REF!</definedName>
-    <definedName name="__ＩＯ２" localSheetId="5" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" localSheetId="4" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" localSheetId="3" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" localSheetId="6" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" localSheetId="2" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" localSheetId="1" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="__ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="_a1">#REF!</definedName>
-    <definedName name="_ＩＯ２" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="_ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="DB属性">[1]CODE!$H$3:$H$13</definedName>
-    <definedName name="HH" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="HH" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="HTML_CodePage" hidden="1">932</definedName>
-    <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="HTML_Control" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="HTML_Description" hidden="1">""</definedName>
-    <definedName name="HTML_Email" hidden="1">""</definedName>
-    <definedName name="HTML_Header" hidden="1">"ﾒ画1 (2)"</definedName>
-    <definedName name="HTML_LastUpdate" hidden="1">"00/05/23"</definedName>
-    <definedName name="HTML_LineAfter" hidden="1">FALSE</definedName>
-    <definedName name="HTML_LineBefore" hidden="1">FALSE</definedName>
-    <definedName name="HTML_Name" hidden="1">"大阪業務部"</definedName>
-    <definedName name="HTML_OBDlg2" hidden="1">TRUE</definedName>
-    <definedName name="HTML_OBDlg4" hidden="1">TRUE</definedName>
-    <definedName name="HTML_OS" hidden="1">0</definedName>
-    <definedName name="HTML_PathFile" hidden="1">"C:\My Documents\MyHTML.htm"</definedName>
-    <definedName name="HTML_Title" hidden="1">"購買(画面)"</definedName>
-    <definedName name="HTML1_1" hidden="1">"[個人データ.xls]情報処理試験!$B$1:$G$28"</definedName>
-    <definedName name="HTML1_10" hidden="1">""</definedName>
-    <definedName name="HTML1_11" hidden="1">1</definedName>
-    <definedName name="HTML1_12" hidden="1">"V:\tsqc\edu\kojin.htm"</definedName>
-    <definedName name="HTML1_2" hidden="1">1</definedName>
-    <definedName name="HTML1_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML1_4" hidden="1">"情報処理試験"</definedName>
-    <definedName name="HTML1_5" hidden="1">""</definedName>
-    <definedName name="HTML1_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML1_6" hidden="1">-4146</definedName>
-    <definedName name="HTML1_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML1_7" hidden="1">-4146</definedName>
-    <definedName name="HTML1_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML1_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML10_1" hidden="1">"[個人データ.xls]通信教育!$A$1:$F$122"</definedName>
-    <definedName name="HTML10_10" hidden="1">""</definedName>
-    <definedName name="HTML10_11" hidden="1">1</definedName>
-    <definedName name="HTML10_12" hidden="1">"V:\tsqc\edu\tsushin.htm"</definedName>
-    <definedName name="HTML10_2" hidden="1">1</definedName>
-    <definedName name="HTML10_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML10_4" hidden="1">"通信教育修了者一覧"</definedName>
-    <definedName name="HTML10_5" hidden="1">""</definedName>
-    <definedName name="HTML10_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML10_6" hidden="1">-4146</definedName>
-    <definedName name="HTML10_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML10_7" hidden="1">-4146</definedName>
-    <definedName name="HTML10_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML10_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML11_1" hidden="1">"[個人データ.xls]ＭＣＰ!$J$2:$P$7"</definedName>
-    <definedName name="HTML11_10" hidden="1">""</definedName>
-    <definedName name="HTML11_11" hidden="1">1</definedName>
-    <definedName name="HTML11_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
-    <definedName name="HTML11_2" hidden="1">1</definedName>
-    <definedName name="HTML11_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML11_4" hidden="1">"ＭＣＰ部門別合格者数"</definedName>
-    <definedName name="HTML11_5" hidden="1">""</definedName>
-    <definedName name="HTML11_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML11_6" hidden="1">-4146</definedName>
-    <definedName name="HTML11_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML11_7" hidden="1">-4146</definedName>
-    <definedName name="HTML11_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML11_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML12_1" hidden="1">"[個人データ.xls]通信教育!$H$2:$O$64"</definedName>
-    <definedName name="HTML12_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML12_11" hidden="1">1</definedName>
-    <definedName name="HTML12_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\hyo3.htm"</definedName>
-    <definedName name="HTML12_2" hidden="1">1</definedName>
-    <definedName name="HTML12_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML12_4" hidden="1">"通信教育　コース別部門別修了者数"</definedName>
-    <definedName name="HTML12_5" hidden="1">""</definedName>
-    <definedName name="HTML12_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML12_6" hidden="1">-4146</definedName>
-    <definedName name="HTML12_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML12_7" hidden="1">-4146</definedName>
-    <definedName name="HTML12_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML12_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML13_1" hidden="1">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$O$50"</definedName>
-    <definedName name="HTML13_10" hidden="1">""</definedName>
-    <definedName name="HTML13_11" hidden="1">1</definedName>
-    <definedName name="HTML13_12" hidden="1">"V:\tsqc\edu\pj.htm"</definedName>
-    <definedName name="HTML13_2" hidden="1">1</definedName>
-    <definedName name="HTML13_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML13_4" hidden="1">"ＰＪ管理勉強会　受講者一覧"</definedName>
-    <definedName name="HTML13_5" hidden="1">""</definedName>
-    <definedName name="HTML13_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML13_6" hidden="1">-4146</definedName>
-    <definedName name="HTML13_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML13_7" hidden="1">-4146</definedName>
-    <definedName name="HTML13_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML13_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML14_1" hidden="1">"[個人データ.xls]英会話!$K$1:$O$30"</definedName>
-    <definedName name="HTML14_10" hidden="1">""</definedName>
-    <definedName name="HTML14_11" hidden="1">1</definedName>
-    <definedName name="HTML14_12" hidden="1">"V:\tsqc\edu\eikaiwa.htm"</definedName>
-    <definedName name="HTML14_2" hidden="1">1</definedName>
-    <definedName name="HTML14_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML14_4" hidden="1">"英会話勉強会　受講者一覧"</definedName>
-    <definedName name="HTML14_5" hidden="1">""</definedName>
-    <definedName name="HTML14_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML14_6" hidden="1">-4146</definedName>
-    <definedName name="HTML14_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML14_7" hidden="1">-4146</definedName>
-    <definedName name="HTML14_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML14_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML15_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$128"</definedName>
-    <definedName name="HTML15_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML15_11" hidden="1">1</definedName>
-    <definedName name="HTML15_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML15_2" hidden="1">1</definedName>
-    <definedName name="HTML15_3" hidden="1">""</definedName>
-    <definedName name="HTML15_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML15_5" hidden="1">""</definedName>
-    <definedName name="HTML15_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML15_6" hidden="1">-4146</definedName>
-    <definedName name="HTML15_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML15_7" hidden="1">-4146</definedName>
-    <definedName name="HTML15_8" hidden="1">"97/08/28"</definedName>
-    <definedName name="HTML15_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML16_1" hidden="1">"[個人データ.xls]英会話!$K$1:$O$31"</definedName>
-    <definedName name="HTML16_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML16_11" hidden="1">1</definedName>
-    <definedName name="HTML16_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\eikaiwa.htm"</definedName>
-    <definedName name="HTML16_2" hidden="1">1</definedName>
-    <definedName name="HTML16_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML16_4" hidden="1">"英会話受講者一覧"</definedName>
-    <definedName name="HTML16_5" hidden="1">""</definedName>
-    <definedName name="HTML16_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML16_6" hidden="1">-4146</definedName>
-    <definedName name="HTML16_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML16_7" hidden="1">-4146</definedName>
-    <definedName name="HTML16_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML16_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML17_1" hidden="1">"[個人データ.xls]HP合格者!$A$1:$E$115"</definedName>
-    <definedName name="HTML17_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML17_11" hidden="1">1</definedName>
-    <definedName name="HTML17_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML17_2" hidden="1">1</definedName>
-    <definedName name="HTML17_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML17_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML17_5" hidden="1">""</definedName>
-    <definedName name="HTML17_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML17_6" hidden="1">-4146</definedName>
-    <definedName name="HTML17_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML17_7" hidden="1">-4146</definedName>
-    <definedName name="HTML17_8" hidden="1">"97/07/28"</definedName>
-    <definedName name="HTML17_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML18_1" hidden="1">"[個人データ.xls]HP合格者!$G$1:$K$74"</definedName>
-    <definedName name="HTML18_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML18_11" hidden="1">1</definedName>
-    <definedName name="HTML18_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shikenyo.htm"</definedName>
-    <definedName name="HTML18_2" hidden="1">1</definedName>
-    <definedName name="HTML18_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML18_4" hidden="1">"情報処理資格取得予定者一覧"</definedName>
-    <definedName name="HTML18_5" hidden="1">""</definedName>
-    <definedName name="HTML18_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML18_6" hidden="1">-4146</definedName>
-    <definedName name="HTML18_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML18_7" hidden="1">-4146</definedName>
-    <definedName name="HTML18_8" hidden="1">"97/09/05"</definedName>
-    <definedName name="HTML18_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML19_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$115"</definedName>
-    <definedName name="HTML19_10" hidden="1">""</definedName>
-    <definedName name="HTML19_11" hidden="1">1</definedName>
-    <definedName name="HTML19_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML19_2" hidden="1">1</definedName>
-    <definedName name="HTML19_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML19_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML19_5" hidden="1">""</definedName>
-    <definedName name="HTML19_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML19_6" hidden="1">-4146</definedName>
-    <definedName name="HTML19_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML19_7" hidden="1">-4146</definedName>
-    <definedName name="HTML19_8" hidden="1">"97/07/28"</definedName>
-    <definedName name="HTML19_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML2_1" hidden="1">"[個人データ.xls]情報処理試験!$A$1:$G$112"</definedName>
-    <definedName name="HTML2_10" hidden="1">""</definedName>
-    <definedName name="HTML2_11" hidden="1">1</definedName>
-    <definedName name="HTML2_12" hidden="1">"V:\tsqc\edu\MyHTML.htm"</definedName>
-    <definedName name="HTML2_2" hidden="1">1</definedName>
-    <definedName name="HTML2_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML2_4" hidden="1">"情報処理試験合格者"</definedName>
-    <definedName name="HTML2_5" hidden="1">""</definedName>
-    <definedName name="HTML2_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML2_6" hidden="1">-4146</definedName>
-    <definedName name="HTML2_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML2_7" hidden="1">-4146</definedName>
-    <definedName name="HTML2_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML2_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML20_1" hidden="1">"[個人データ.xls]HP合格者!$A$1:$E$117"</definedName>
-    <definedName name="HTML20_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML20_11" hidden="1">1</definedName>
-    <definedName name="HTML20_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML20_2" hidden="1">1</definedName>
-    <definedName name="HTML20_3" hidden="1">""</definedName>
-    <definedName name="HTML20_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML20_5" hidden="1">""</definedName>
-    <definedName name="HTML20_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML20_6" hidden="1">-4146</definedName>
-    <definedName name="HTML20_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML20_7" hidden="1">-4146</definedName>
-    <definedName name="HTML20_8" hidden="1">"97/09/05"</definedName>
-    <definedName name="HTML20_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML21_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$117"</definedName>
-    <definedName name="HTML21_10" hidden="1">""</definedName>
-    <definedName name="HTML21_11" hidden="1">1</definedName>
-    <definedName name="HTML21_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML21_2" hidden="1">1</definedName>
-    <definedName name="HTML21_3" hidden="1">""</definedName>
-    <definedName name="HTML21_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML21_5" hidden="1">""</definedName>
-    <definedName name="HTML21_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML21_6" hidden="1">-4146</definedName>
-    <definedName name="HTML21_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML21_7" hidden="1">-4146</definedName>
-    <definedName name="HTML21_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML21_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML22_1" hidden="1">"[個人データ.xls]HP合格者!$G$2:$K$74"</definedName>
-    <definedName name="HTML22_10" hidden="1">""</definedName>
-    <definedName name="HTML22_11" hidden="1">1</definedName>
-    <definedName name="HTML22_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shikenyo.htm"</definedName>
-    <definedName name="HTML22_2" hidden="1">1</definedName>
-    <definedName name="HTML22_3" hidden="1">""</definedName>
-    <definedName name="HTML22_4" hidden="1">"情報処理試験取得予定者一覧"</definedName>
-    <definedName name="HTML22_5" hidden="1">""</definedName>
-    <definedName name="HTML22_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML22_6" hidden="1">-4146</definedName>
-    <definedName name="HTML22_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML22_7" hidden="1">-4146</definedName>
-    <definedName name="HTML22_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML22_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML23_1" hidden="1">"[個人データ.xls]情報処理試験!$J$2:$S$111"</definedName>
-    <definedName name="HTML23_10" hidden="1">""</definedName>
-    <definedName name="HTML23_11" hidden="1">1</definedName>
-    <definedName name="HTML23_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\hyo1.htm"</definedName>
-    <definedName name="HTML23_2" hidden="1">1</definedName>
-    <definedName name="HTML23_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML23_4" hidden="1">"情報処理試験　部門別合格者数"</definedName>
-    <definedName name="HTML23_5" hidden="1">""</definedName>
-    <definedName name="HTML23_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML23_6" hidden="1">-4146</definedName>
-    <definedName name="HTML23_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML23_7" hidden="1">-4146</definedName>
-    <definedName name="HTML23_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML23_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML24_1" hidden="1">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$P$54"</definedName>
-    <definedName name="HTML24_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML24_11" hidden="1">1</definedName>
-    <definedName name="HTML24_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\pj.htm"</definedName>
-    <definedName name="HTML24_2" hidden="1">1</definedName>
-    <definedName name="HTML24_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML24_4" hidden="1">"ＰＪ管理勉強会"</definedName>
-    <definedName name="HTML24_5" hidden="1">""</definedName>
-    <definedName name="HTML24_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML24_6" hidden="1">-4146</definedName>
-    <definedName name="HTML24_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML24_7" hidden="1">-4146</definedName>
-    <definedName name="HTML24_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML24_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML25_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$124"</definedName>
-    <definedName name="HTML25_10" hidden="1">"noda@ts.osaka.omronsoft"</definedName>
-    <definedName name="HTML25_11" hidden="1">1</definedName>
-    <definedName name="HTML25_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML25_2" hidden="1">1</definedName>
-    <definedName name="HTML25_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML25_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML25_5" hidden="1">""</definedName>
-    <definedName name="HTML25_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML25_6" hidden="1">-4146</definedName>
-    <definedName name="HTML25_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML25_7" hidden="1">-4146</definedName>
-    <definedName name="HTML25_8" hidden="1">"97/08/28"</definedName>
-    <definedName name="HTML25_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML26_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$84"</definedName>
-    <definedName name="HTML26_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML26_11" hidden="1">1</definedName>
-    <definedName name="HTML26_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML26_2" hidden="1">1</definedName>
-    <definedName name="HTML26_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML26_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML26_5" hidden="1">""</definedName>
-    <definedName name="HTML26_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML26_6" hidden="1">-4146</definedName>
-    <definedName name="HTML26_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML26_7" hidden="1">-4146</definedName>
-    <definedName name="HTML26_8" hidden="1">"97/08/28"</definedName>
-    <definedName name="HTML26_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML27_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$86"</definedName>
-    <definedName name="HTML27_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML27_11" hidden="1">1</definedName>
-    <definedName name="HTML27_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML27_2" hidden="1">1</definedName>
-    <definedName name="HTML27_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML27_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML27_5" hidden="1">""</definedName>
-    <definedName name="HTML27_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML27_6" hidden="1">-4146</definedName>
-    <definedName name="HTML27_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML27_7" hidden="1">-4146</definedName>
-    <definedName name="HTML27_8" hidden="1">"97/08/28"</definedName>
-    <definedName name="HTML27_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML28_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$87"</definedName>
-    <definedName name="HTML28_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML28_11" hidden="1">1</definedName>
-    <definedName name="HTML28_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML28_2" hidden="1">1</definedName>
-    <definedName name="HTML28_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML28_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML28_5" hidden="1">""</definedName>
-    <definedName name="HTML28_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML28_6" hidden="1">-4146</definedName>
-    <definedName name="HTML28_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML28_7" hidden="1">-4146</definedName>
-    <definedName name="HTML28_8" hidden="1">"97/09/01"</definedName>
-    <definedName name="HTML28_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML29_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$100"</definedName>
-    <definedName name="HTML29_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML29_11" hidden="1">1</definedName>
-    <definedName name="HTML29_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML29_2" hidden="1">1</definedName>
-    <definedName name="HTML29_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML29_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML29_5" hidden="1">""</definedName>
-    <definedName name="HTML29_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML29_6" hidden="1">-4146</definedName>
-    <definedName name="HTML29_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML29_7" hidden="1">-4146</definedName>
-    <definedName name="HTML29_8" hidden="1">"97/09/02"</definedName>
-    <definedName name="HTML29_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML3_1" hidden="1">"[個人データ.xls]情報処理試験!$I$2:$R$88"</definedName>
-    <definedName name="HTML3_10" hidden="1">""</definedName>
-    <definedName name="HTML3_11" hidden="1">1</definedName>
-    <definedName name="HTML3_12" hidden="1">"V:\tsqc\edu\hyo1.htm"</definedName>
-    <definedName name="HTML3_2" hidden="1">1</definedName>
-    <definedName name="HTML3_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML3_4" hidden="1">"情報処理試験　年度別部門別合格者数"</definedName>
-    <definedName name="HTML3_5" hidden="1">""</definedName>
-    <definedName name="HTML3_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML3_6" hidden="1">-4146</definedName>
-    <definedName name="HTML3_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML3_7" hidden="1">-4146</definedName>
-    <definedName name="HTML3_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML3_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML30_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$97"</definedName>
-    <definedName name="HTML30_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML30_11" hidden="1">1</definedName>
-    <definedName name="HTML30_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML30_2" hidden="1">1</definedName>
-    <definedName name="HTML30_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML30_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML30_5" hidden="1">""</definedName>
-    <definedName name="HTML30_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML30_6" hidden="1">-4146</definedName>
-    <definedName name="HTML30_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML30_7" hidden="1">-4146</definedName>
-    <definedName name="HTML30_8" hidden="1">"97/09/05"</definedName>
-    <definedName name="HTML30_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML31_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$109"</definedName>
-    <definedName name="HTML31_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML31_11" hidden="1">1</definedName>
-    <definedName name="HTML31_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML31_2" hidden="1">1</definedName>
-    <definedName name="HTML31_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML31_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML31_5" hidden="1">""</definedName>
-    <definedName name="HTML31_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML31_6" hidden="1">-4146</definedName>
-    <definedName name="HTML31_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML31_7" hidden="1">-4146</definedName>
-    <definedName name="HTML31_8" hidden="1">"97/09/26"</definedName>
-    <definedName name="HTML31_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML32_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$112"</definedName>
-    <definedName name="HTML32_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML32_11" hidden="1">1</definedName>
-    <definedName name="HTML32_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML32_2" hidden="1">1</definedName>
-    <definedName name="HTML32_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML32_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML32_5" hidden="1">""</definedName>
-    <definedName name="HTML32_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML32_6" hidden="1">-4146</definedName>
-    <definedName name="HTML32_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML32_7" hidden="1">-4146</definedName>
-    <definedName name="HTML32_8" hidden="1">"97/09/30"</definedName>
-    <definedName name="HTML32_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML33_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$125"</definedName>
-    <definedName name="HTML33_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML33_11" hidden="1">1</definedName>
-    <definedName name="HTML33_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML33_2" hidden="1">1</definedName>
-    <definedName name="HTML33_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML33_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML33_5" hidden="1">""</definedName>
-    <definedName name="HTML33_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML33_6" hidden="1">-4146</definedName>
-    <definedName name="HTML33_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML33_7" hidden="1">-4146</definedName>
-    <definedName name="HTML33_8" hidden="1">"97/10/03"</definedName>
-    <definedName name="HTML33_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML34_1" hidden="1">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$P$61"</definedName>
-    <definedName name="HTML34_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML34_11" hidden="1">1</definedName>
-    <definedName name="HTML34_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\pj.htm"</definedName>
-    <definedName name="HTML34_2" hidden="1">1</definedName>
-    <definedName name="HTML34_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML34_4" hidden="1">"ＰＪ管理勉強会"</definedName>
-    <definedName name="HTML34_5" hidden="1">""</definedName>
-    <definedName name="HTML34_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML34_6" hidden="1">-4146</definedName>
-    <definedName name="HTML34_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML34_7" hidden="1">-4146</definedName>
-    <definedName name="HTML34_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML34_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML35_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$133"</definedName>
-    <definedName name="HTML35_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML35_11" hidden="1">1</definedName>
-    <definedName name="HTML35_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML35_2" hidden="1">1</definedName>
-    <definedName name="HTML35_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML35_4" hidden="1">"９７年度研修受講一覧"</definedName>
-    <definedName name="HTML35_5" hidden="1">""</definedName>
-    <definedName name="HTML35_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML35_6" hidden="1">-4146</definedName>
-    <definedName name="HTML35_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML35_7" hidden="1">-4146</definedName>
-    <definedName name="HTML35_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML35_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML36_1" hidden="1">"[個人データ.xls]通信教育!$A$1:$F$137"</definedName>
-    <definedName name="HTML36_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML36_11" hidden="1">1</definedName>
-    <definedName name="HTML36_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\tsushin.htm"</definedName>
-    <definedName name="HTML36_2" hidden="1">1</definedName>
-    <definedName name="HTML36_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML36_4" hidden="1">"通信教育"</definedName>
-    <definedName name="HTML36_5" hidden="1">""</definedName>
-    <definedName name="HTML36_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML36_6" hidden="1">-4146</definedName>
-    <definedName name="HTML36_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML36_7" hidden="1">-4146</definedName>
-    <definedName name="HTML36_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML36_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML37_1" hidden="1">"[個人データ.xls]通信教育!$H$2:$O$72"</definedName>
-    <definedName name="HTML37_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML37_11" hidden="1">1</definedName>
-    <definedName name="HTML37_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo3.htm"</definedName>
-    <definedName name="HTML37_2" hidden="1">1</definedName>
-    <definedName name="HTML37_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML37_4" hidden="1">"通信教育部門別修了者数一覧"</definedName>
-    <definedName name="HTML37_5" hidden="1">""</definedName>
-    <definedName name="HTML37_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML37_6" hidden="1">-4146</definedName>
-    <definedName name="HTML37_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML37_7" hidden="1">-4146</definedName>
-    <definedName name="HTML37_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML37_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML38_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$25"</definedName>
-    <definedName name="HTML38_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML38_11" hidden="1">1</definedName>
-    <definedName name="HTML38_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML38_2" hidden="1">1</definedName>
-    <definedName name="HTML38_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML38_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
-    <definedName name="HTML38_5" hidden="1">""</definedName>
-    <definedName name="HTML38_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML38_6" hidden="1">-4146</definedName>
-    <definedName name="HTML38_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML38_7" hidden="1">-4146</definedName>
-    <definedName name="HTML38_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML38_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML39_1" hidden="1">"[個人データ.xls]HP合格者!$A$1:$E$119"</definedName>
-    <definedName name="HTML39_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML39_11" hidden="1">1</definedName>
-    <definedName name="HTML39_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML39_2" hidden="1">1</definedName>
-    <definedName name="HTML39_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML39_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML39_5" hidden="1">""</definedName>
-    <definedName name="HTML39_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML39_6" hidden="1">-4146</definedName>
-    <definedName name="HTML39_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML39_7" hidden="1">-4146</definedName>
-    <definedName name="HTML39_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML39_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML4_1" hidden="1">"[個人データ.xls]ＭＣＰ!$A$1:$H$15"</definedName>
-    <definedName name="HTML4_10" hidden="1">""</definedName>
-    <definedName name="HTML4_11" hidden="1">1</definedName>
-    <definedName name="HTML4_12" hidden="1">"V:\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML4_2" hidden="1">1</definedName>
-    <definedName name="HTML4_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML4_4" hidden="1">"ＭＣＰ合格者"</definedName>
-    <definedName name="HTML4_5" hidden="1">""</definedName>
-    <definedName name="HTML4_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML4_6" hidden="1">-4146</definedName>
-    <definedName name="HTML4_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML4_7" hidden="1">-4146</definedName>
-    <definedName name="HTML4_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML4_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML40_1" hidden="1">"[個人データ.xls]情報処理試験!$J$2:$S$113"</definedName>
-    <definedName name="HTML40_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML40_11" hidden="1">1</definedName>
-    <definedName name="HTML40_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo1.htm"</definedName>
-    <definedName name="HTML40_2" hidden="1">1</definedName>
-    <definedName name="HTML40_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML40_4" hidden="1">"情報処理試験部門別合格者数一覧"</definedName>
-    <definedName name="HTML40_5" hidden="1">""</definedName>
-    <definedName name="HTML40_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML40_6" hidden="1">-4146</definedName>
-    <definedName name="HTML40_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML40_7" hidden="1">-4146</definedName>
-    <definedName name="HTML40_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML40_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML41_1" hidden="1">"[個人データ.xls]ＭＣＰ!$J$2:$Q$11"</definedName>
-    <definedName name="HTML41_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML41_11" hidden="1">1</definedName>
-    <definedName name="HTML41_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
-    <definedName name="HTML41_2" hidden="1">1</definedName>
-    <definedName name="HTML41_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML41_4" hidden="1">"ＭＣＰ部門別合格者数一覧"</definedName>
-    <definedName name="HTML41_5" hidden="1">""</definedName>
-    <definedName name="HTML41_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML41_6" hidden="1">-4146</definedName>
-    <definedName name="HTML41_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML41_7" hidden="1">-4146</definedName>
-    <definedName name="HTML41_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML41_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML42_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$119"</definedName>
-    <definedName name="HTML42_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML42_11" hidden="1">1</definedName>
-    <definedName name="HTML42_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML42_2" hidden="1">1</definedName>
-    <definedName name="HTML42_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML42_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML42_5" hidden="1">""</definedName>
-    <definedName name="HTML42_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML42_6" hidden="1">-4146</definedName>
-    <definedName name="HTML42_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML42_7" hidden="1">-4146</definedName>
-    <definedName name="HTML42_8" hidden="1">"98/01/05"</definedName>
-    <definedName name="HTML42_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML43_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$170"</definedName>
-    <definedName name="HTML43_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML43_11" hidden="1">1</definedName>
-    <definedName name="HTML43_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML43_2" hidden="1">1</definedName>
-    <definedName name="HTML43_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML43_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML43_5" hidden="1">""</definedName>
-    <definedName name="HTML43_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML43_6" hidden="1">-4146</definedName>
-    <definedName name="HTML43_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML43_7" hidden="1">-4146</definedName>
-    <definedName name="HTML43_8" hidden="1">"98/01/07"</definedName>
-    <definedName name="HTML43_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML44_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$26"</definedName>
-    <definedName name="HTML44_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML44_11" hidden="1">1</definedName>
-    <definedName name="HTML44_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML44_2" hidden="1">1</definedName>
-    <definedName name="HTML44_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML44_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
-    <definedName name="HTML44_5" hidden="1">""</definedName>
-    <definedName name="HTML44_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML44_6" hidden="1">-4146</definedName>
-    <definedName name="HTML44_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML44_7" hidden="1">-4146</definedName>
-    <definedName name="HTML44_8" hidden="1">"98/01/09"</definedName>
-    <definedName name="HTML44_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML45_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$27"</definedName>
-    <definedName name="HTML45_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML45_11" hidden="1">1</definedName>
-    <definedName name="HTML45_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML45_2" hidden="1">1</definedName>
-    <definedName name="HTML45_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML45_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
-    <definedName name="HTML45_5" hidden="1">""</definedName>
-    <definedName name="HTML45_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML45_6" hidden="1">-4146</definedName>
-    <definedName name="HTML45_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML45_7" hidden="1">-4146</definedName>
-    <definedName name="HTML45_8" hidden="1">"98/01/16"</definedName>
-    <definedName name="HTML45_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML46_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$172"</definedName>
-    <definedName name="HTML46_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML46_11" hidden="1">1</definedName>
-    <definedName name="HTML46_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML46_2" hidden="1">1</definedName>
-    <definedName name="HTML46_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML46_4" hidden="1">"９７年度研修受講一覧"</definedName>
-    <definedName name="HTML46_5" hidden="1">""</definedName>
-    <definedName name="HTML46_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML46_6" hidden="1">-4146</definedName>
-    <definedName name="HTML46_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML46_7" hidden="1">-4146</definedName>
-    <definedName name="HTML46_8" hidden="1">"98/01/19"</definedName>
-    <definedName name="HTML46_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML47_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$123"</definedName>
-    <definedName name="HTML47_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML47_11" hidden="1">1</definedName>
-    <definedName name="HTML47_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML47_2" hidden="1">1</definedName>
-    <definedName name="HTML47_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML47_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML47_5" hidden="1">""</definedName>
-    <definedName name="HTML47_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML47_6" hidden="1">-4146</definedName>
-    <definedName name="HTML47_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML47_7" hidden="1">-4146</definedName>
-    <definedName name="HTML47_8" hidden="1">"98/01/19"</definedName>
-    <definedName name="HTML47_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML48_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$29"</definedName>
-    <definedName name="HTML48_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML48_11" hidden="1">1</definedName>
-    <definedName name="HTML48_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML48_2" hidden="1">1</definedName>
-    <definedName name="HTML48_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML48_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
-    <definedName name="HTML48_5" hidden="1">""</definedName>
-    <definedName name="HTML48_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML48_6" hidden="1">-4146</definedName>
-    <definedName name="HTML48_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML48_7" hidden="1">-4146</definedName>
-    <definedName name="HTML48_8" hidden="1">"98/01/19"</definedName>
-    <definedName name="HTML48_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML49_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$33"</definedName>
-    <definedName name="HTML49_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML49_11" hidden="1">1</definedName>
-    <definedName name="HTML49_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML49_2" hidden="1">1</definedName>
-    <definedName name="HTML49_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML49_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
-    <definedName name="HTML49_5" hidden="1">""</definedName>
-    <definedName name="HTML49_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML49_6" hidden="1">-4146</definedName>
-    <definedName name="HTML49_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML49_7" hidden="1">-4146</definedName>
-    <definedName name="HTML49_8" hidden="1">"98/01/20"</definedName>
-    <definedName name="HTML49_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML5_1" hidden="1">"'[個人データ.xls]９６年度研修'!$A$1:$B$150,$D$1:$E$150,$G$1:$G$150"</definedName>
-    <definedName name="HTML5_10" hidden="1">""</definedName>
-    <definedName name="HTML5_11" hidden="1">1</definedName>
-    <definedName name="HTML5_12" hidden="1">"V:\tsqc\edu\96kensyu.htm"</definedName>
-    <definedName name="HTML5_2" hidden="1">1</definedName>
-    <definedName name="HTML5_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML5_4" hidden="1">"９６年度研修受講者一覧"</definedName>
-    <definedName name="HTML5_5" hidden="1">""</definedName>
-    <definedName name="HTML5_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML5_6" hidden="1">-4146</definedName>
-    <definedName name="HTML5_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML5_7" hidden="1">-4146</definedName>
-    <definedName name="HTML5_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML5_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML50_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$173"</definedName>
-    <definedName name="HTML50_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML50_11" hidden="1">1</definedName>
-    <definedName name="HTML50_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML50_2" hidden="1">1</definedName>
-    <definedName name="HTML50_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML50_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML50_5" hidden="1">""</definedName>
-    <definedName name="HTML50_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML50_6" hidden="1">-4146</definedName>
-    <definedName name="HTML50_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML50_7" hidden="1">-4146</definedName>
-    <definedName name="HTML50_8" hidden="1">"98/01/20"</definedName>
-    <definedName name="HTML50_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML51_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$40"</definedName>
-    <definedName name="HTML51_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
-    <definedName name="HTML51_11" hidden="1">1</definedName>
-    <definedName name="HTML51_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML51_2" hidden="1">1</definedName>
-    <definedName name="HTML51_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML51_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
-    <definedName name="HTML51_5" hidden="1">""</definedName>
-    <definedName name="HTML51_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML51_6" hidden="1">-4146</definedName>
-    <definedName name="HTML51_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML51_7" hidden="1">-4146</definedName>
-    <definedName name="HTML51_8" hidden="1">"98/02/12"</definedName>
-    <definedName name="HTML51_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML52_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$124"</definedName>
-    <definedName name="HTML52_10" hidden="1">""</definedName>
-    <definedName name="HTML52_11" hidden="1">1</definedName>
-    <definedName name="HTML52_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
-    <definedName name="HTML52_2" hidden="1">1</definedName>
-    <definedName name="HTML52_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML52_4" hidden="1">"情報処理試験合格者一覧"</definedName>
-    <definedName name="HTML52_5" hidden="1">""</definedName>
-    <definedName name="HTML52_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML52_6" hidden="1">-4146</definedName>
-    <definedName name="HTML52_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML52_7" hidden="1">-4146</definedName>
-    <definedName name="HTML52_8" hidden="1">"98/01/28"</definedName>
-    <definedName name="HTML52_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML53_1" hidden="1">"[個人データ.xls]通信教育!$A$1:$F$138"</definedName>
-    <definedName name="HTML53_10" hidden="1">""</definedName>
-    <definedName name="HTML53_11" hidden="1">1</definedName>
-    <definedName name="HTML53_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\tsushin.htm"</definedName>
-    <definedName name="HTML53_2" hidden="1">1</definedName>
-    <definedName name="HTML53_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML53_4" hidden="1">"通信教育受講終了一覧"</definedName>
-    <definedName name="HTML53_5" hidden="1">""</definedName>
-    <definedName name="HTML53_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML53_6" hidden="1">-4146</definedName>
-    <definedName name="HTML53_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML53_7" hidden="1">-4146</definedName>
-    <definedName name="HTML53_8" hidden="1">"98/02/03"</definedName>
-    <definedName name="HTML53_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML54_1" hidden="1">"[個人データ.xls]ＭＣＰ!$J$2:$S$11"</definedName>
-    <definedName name="HTML54_10" hidden="1">""</definedName>
-    <definedName name="HTML54_11" hidden="1">1</definedName>
-    <definedName name="HTML54_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
-    <definedName name="HTML54_2" hidden="1">1</definedName>
-    <definedName name="HTML54_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML54_4" hidden="1">"ＭＣＰ部門別合格者数一覧"</definedName>
-    <definedName name="HTML54_5" hidden="1">""</definedName>
-    <definedName name="HTML54_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML54_6" hidden="1">-4146</definedName>
-    <definedName name="HTML54_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML54_7" hidden="1">-4146</definedName>
-    <definedName name="HTML54_8" hidden="1">"98/02/03"</definedName>
-    <definedName name="HTML54_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML6_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$15"</definedName>
-    <definedName name="HTML6_10" hidden="1">""</definedName>
-    <definedName name="HTML6_11" hidden="1">1</definedName>
-    <definedName name="HTML6_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\mcp.htm"</definedName>
-    <definedName name="HTML6_2" hidden="1">1</definedName>
-    <definedName name="HTML6_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML6_4" hidden="1">"ＭＣＰ合格者"</definedName>
-    <definedName name="HTML6_5" hidden="1">""</definedName>
-    <definedName name="HTML6_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML6_6" hidden="1">-4146</definedName>
-    <definedName name="HTML6_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML6_7" hidden="1">-4146</definedName>
-    <definedName name="HTML6_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML6_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML7_1" hidden="1">"[個人データ.xls]Sheet2!$A$1:$E$46"</definedName>
-    <definedName name="HTML7_10" hidden="1">""</definedName>
-    <definedName name="HTML7_11" hidden="1">1</definedName>
-    <definedName name="HTML7_12" hidden="1">"V:\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML7_2" hidden="1">1</definedName>
-    <definedName name="HTML7_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML7_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML7_5" hidden="1">""</definedName>
-    <definedName name="HTML7_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML7_6" hidden="1">-4146</definedName>
-    <definedName name="HTML7_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML7_7" hidden="1">-4146</definedName>
-    <definedName name="HTML7_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML7_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML8_1" hidden="1">"[個人データ.xls]HP９６年度研修!$A$1:$E$150"</definedName>
-    <definedName name="HTML8_10" hidden="1">""</definedName>
-    <definedName name="HTML8_11" hidden="1">1</definedName>
-    <definedName name="HTML8_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\96kensyu.htm"</definedName>
-    <definedName name="HTML8_2" hidden="1">1</definedName>
-    <definedName name="HTML8_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML8_4" hidden="1">"９６年度研修受講者一覧"</definedName>
-    <definedName name="HTML8_5" hidden="1">""</definedName>
-    <definedName name="HTML8_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML8_6" hidden="1">-4146</definedName>
-    <definedName name="HTML8_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML8_7" hidden="1">-4146</definedName>
-    <definedName name="HTML8_8" hidden="1">"97/08/04"</definedName>
-    <definedName name="HTML8_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTML9_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$46"</definedName>
-    <definedName name="HTML9_10" hidden="1">""</definedName>
-    <definedName name="HTML9_11" hidden="1">1</definedName>
-    <definedName name="HTML9_12" hidden="1">"V:\tsqc\edu\97kensyu.htm"</definedName>
-    <definedName name="HTML9_2" hidden="1">1</definedName>
-    <definedName name="HTML9_3" hidden="1">"個人データ.xls"</definedName>
-    <definedName name="HTML9_4" hidden="1">"９７年度研修受講者一覧"</definedName>
-    <definedName name="HTML9_5" hidden="1">""</definedName>
-    <definedName name="HTML9_6" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML9_6" hidden="1">-4146</definedName>
-    <definedName name="HTML9_7" localSheetId="1" hidden="1">-4146</definedName>
-    <definedName name="HTML9_7" hidden="1">-4146</definedName>
-    <definedName name="HTML9_8" hidden="1">"97/06/20"</definedName>
-    <definedName name="HTML9_9" hidden="1">"野田美由希"</definedName>
-    <definedName name="HTMLCount" hidden="1">54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$44</definedName>
+    <definedName name="HH" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HH" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HTML10_1" hidden="true">"[個人データ.xls]通信教育!$A$1:$F$122"</definedName>
+    <definedName name="HTML10_10" hidden="true">""</definedName>
+    <definedName name="HTML10_11" hidden="true">1</definedName>
+    <definedName name="HTML10_12" hidden="true">"V:\tsqc\edu\tsushin.htm"</definedName>
+    <definedName name="HTML10_2" hidden="true">1</definedName>
+    <definedName name="HTML10_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML10_4" hidden="true">"通信教育修了者一覧"</definedName>
+    <definedName name="HTML10_5" hidden="true">""</definedName>
+    <definedName name="HTML10_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML10_6" hidden="true">-4146</definedName>
+    <definedName name="HTML10_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML10_7" hidden="true">-4146</definedName>
+    <definedName name="HTML10_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML10_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML11_1" hidden="true">"[個人データ.xls]ＭＣＰ!$J$2:$P$7"</definedName>
+    <definedName name="HTML11_10" hidden="true">""</definedName>
+    <definedName name="HTML11_11" hidden="true">1</definedName>
+    <definedName name="HTML11_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
+    <definedName name="HTML11_2" hidden="true">1</definedName>
+    <definedName name="HTML11_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML11_4" hidden="true">"ＭＣＰ部門別合格者数"</definedName>
+    <definedName name="HTML11_5" hidden="true">""</definedName>
+    <definedName name="HTML11_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML11_6" hidden="true">-4146</definedName>
+    <definedName name="HTML11_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML11_7" hidden="true">-4146</definedName>
+    <definedName name="HTML11_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML11_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML12_1" hidden="true">"[個人データ.xls]通信教育!$H$2:$O$64"</definedName>
+    <definedName name="HTML12_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML12_11" hidden="true">1</definedName>
+    <definedName name="HTML12_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\hyo3.htm"</definedName>
+    <definedName name="HTML12_2" hidden="true">1</definedName>
+    <definedName name="HTML12_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML12_4" hidden="true">"通信教育　コース別部門別修了者数"</definedName>
+    <definedName name="HTML12_5" hidden="true">""</definedName>
+    <definedName name="HTML12_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML12_6" hidden="true">-4146</definedName>
+    <definedName name="HTML12_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML12_7" hidden="true">-4146</definedName>
+    <definedName name="HTML12_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML12_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML13_1" hidden="true">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$O$50"</definedName>
+    <definedName name="HTML13_10" hidden="true">""</definedName>
+    <definedName name="HTML13_11" hidden="true">1</definedName>
+    <definedName name="HTML13_12" hidden="true">"V:\tsqc\edu\pj.htm"</definedName>
+    <definedName name="HTML13_2" hidden="true">1</definedName>
+    <definedName name="HTML13_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML13_4" hidden="true">"ＰＪ管理勉強会　受講者一覧"</definedName>
+    <definedName name="HTML13_5" hidden="true">""</definedName>
+    <definedName name="HTML13_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML13_6" hidden="true">-4146</definedName>
+    <definedName name="HTML13_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML13_7" hidden="true">-4146</definedName>
+    <definedName name="HTML13_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML13_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML14_1" hidden="true">"[個人データ.xls]英会話!$K$1:$O$30"</definedName>
+    <definedName name="HTML14_10" hidden="true">""</definedName>
+    <definedName name="HTML14_11" hidden="true">1</definedName>
+    <definedName name="HTML14_12" hidden="true">"V:\tsqc\edu\eikaiwa.htm"</definedName>
+    <definedName name="HTML14_2" hidden="true">1</definedName>
+    <definedName name="HTML14_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML14_4" hidden="true">"英会話勉強会　受講者一覧"</definedName>
+    <definedName name="HTML14_5" hidden="true">""</definedName>
+    <definedName name="HTML14_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML14_6" hidden="true">-4146</definedName>
+    <definedName name="HTML14_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML14_7" hidden="true">-4146</definedName>
+    <definedName name="HTML14_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML14_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML15_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$128"</definedName>
+    <definedName name="HTML15_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML15_11" hidden="true">1</definedName>
+    <definedName name="HTML15_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML15_2" hidden="true">1</definedName>
+    <definedName name="HTML15_3" hidden="true">""</definedName>
+    <definedName name="HTML15_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML15_5" hidden="true">""</definedName>
+    <definedName name="HTML15_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML15_6" hidden="true">-4146</definedName>
+    <definedName name="HTML15_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML15_7" hidden="true">-4146</definedName>
+    <definedName name="HTML15_8" hidden="true">"97/08/28"</definedName>
+    <definedName name="HTML15_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML16_1" hidden="true">"[個人データ.xls]英会話!$K$1:$O$31"</definedName>
+    <definedName name="HTML16_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML16_11" hidden="true">1</definedName>
+    <definedName name="HTML16_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\eikaiwa.htm"</definedName>
+    <definedName name="HTML16_2" hidden="true">1</definedName>
+    <definedName name="HTML16_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML16_4" hidden="true">"英会話受講者一覧"</definedName>
+    <definedName name="HTML16_5" hidden="true">""</definedName>
+    <definedName name="HTML16_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML16_6" hidden="true">-4146</definedName>
+    <definedName name="HTML16_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML16_7" hidden="true">-4146</definedName>
+    <definedName name="HTML16_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML16_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML17_1" hidden="true">"[個人データ.xls]HP合格者!$A$1:$E$115"</definedName>
+    <definedName name="HTML17_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML17_11" hidden="true">1</definedName>
+    <definedName name="HTML17_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML17_2" hidden="true">1</definedName>
+    <definedName name="HTML17_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML17_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML17_5" hidden="true">""</definedName>
+    <definedName name="HTML17_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML17_6" hidden="true">-4146</definedName>
+    <definedName name="HTML17_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML17_7" hidden="true">-4146</definedName>
+    <definedName name="HTML17_8" hidden="true">"97/07/28"</definedName>
+    <definedName name="HTML17_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML18_1" hidden="true">"[個人データ.xls]HP合格者!$G$1:$K$74"</definedName>
+    <definedName name="HTML18_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML18_11" hidden="true">1</definedName>
+    <definedName name="HTML18_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\shikenyo.htm"</definedName>
+    <definedName name="HTML18_2" hidden="true">1</definedName>
+    <definedName name="HTML18_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML18_4" hidden="true">"情報処理資格取得予定者一覧"</definedName>
+    <definedName name="HTML18_5" hidden="true">""</definedName>
+    <definedName name="HTML18_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML18_6" hidden="true">-4146</definedName>
+    <definedName name="HTML18_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML18_7" hidden="true">-4146</definedName>
+    <definedName name="HTML18_8" hidden="true">"97/09/05"</definedName>
+    <definedName name="HTML18_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML19_1" hidden="true">"[個人データ.xls]HP合格者!$A$2:$E$115"</definedName>
+    <definedName name="HTML19_10" hidden="true">""</definedName>
+    <definedName name="HTML19_11" hidden="true">1</definedName>
+    <definedName name="HTML19_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML19_2" hidden="true">1</definedName>
+    <definedName name="HTML19_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML19_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML19_5" hidden="true">""</definedName>
+    <definedName name="HTML19_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML19_6" hidden="true">-4146</definedName>
+    <definedName name="HTML19_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML19_7" hidden="true">-4146</definedName>
+    <definedName name="HTML19_8" hidden="true">"97/07/28"</definedName>
+    <definedName name="HTML19_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML1_1" hidden="true">"[個人データ.xls]情報処理試験!$B$1:$G$28"</definedName>
+    <definedName name="HTML1_10" hidden="true">""</definedName>
+    <definedName name="HTML1_11" hidden="true">1</definedName>
+    <definedName name="HTML1_12" hidden="true">"V:\tsqc\edu\kojin.htm"</definedName>
+    <definedName name="HTML1_2" hidden="true">1</definedName>
+    <definedName name="HTML1_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML1_4" hidden="true">"情報処理試験"</definedName>
+    <definedName name="HTML1_5" hidden="true">""</definedName>
+    <definedName name="HTML1_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML1_6" hidden="true">-4146</definedName>
+    <definedName name="HTML1_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML1_7" hidden="true">-4146</definedName>
+    <definedName name="HTML1_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML1_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML20_1" hidden="true">"[個人データ.xls]HP合格者!$A$1:$E$117"</definedName>
+    <definedName name="HTML20_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML20_11" hidden="true">1</definedName>
+    <definedName name="HTML20_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML20_2" hidden="true">1</definedName>
+    <definedName name="HTML20_3" hidden="true">""</definedName>
+    <definedName name="HTML20_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML20_5" hidden="true">""</definedName>
+    <definedName name="HTML20_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML20_6" hidden="true">-4146</definedName>
+    <definedName name="HTML20_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML20_7" hidden="true">-4146</definedName>
+    <definedName name="HTML20_8" hidden="true">"97/09/05"</definedName>
+    <definedName name="HTML20_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML21_1" hidden="true">"[個人データ.xls]HP合格者!$A$2:$E$117"</definedName>
+    <definedName name="HTML21_10" hidden="true">""</definedName>
+    <definedName name="HTML21_11" hidden="true">1</definedName>
+    <definedName name="HTML21_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML21_2" hidden="true">1</definedName>
+    <definedName name="HTML21_3" hidden="true">""</definedName>
+    <definedName name="HTML21_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML21_5" hidden="true">""</definedName>
+    <definedName name="HTML21_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML21_6" hidden="true">-4146</definedName>
+    <definedName name="HTML21_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML21_7" hidden="true">-4146</definedName>
+    <definedName name="HTML21_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML21_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML22_1" hidden="true">"[個人データ.xls]HP合格者!$G$2:$K$74"</definedName>
+    <definedName name="HTML22_10" hidden="true">""</definedName>
+    <definedName name="HTML22_11" hidden="true">1</definedName>
+    <definedName name="HTML22_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\shikenyo.htm"</definedName>
+    <definedName name="HTML22_2" hidden="true">1</definedName>
+    <definedName name="HTML22_3" hidden="true">""</definedName>
+    <definedName name="HTML22_4" hidden="true">"情報処理試験取得予定者一覧"</definedName>
+    <definedName name="HTML22_5" hidden="true">""</definedName>
+    <definedName name="HTML22_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML22_6" hidden="true">-4146</definedName>
+    <definedName name="HTML22_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML22_7" hidden="true">-4146</definedName>
+    <definedName name="HTML22_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML22_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML23_1" hidden="true">"[個人データ.xls]情報処理試験!$J$2:$S$111"</definedName>
+    <definedName name="HTML23_10" hidden="true">""</definedName>
+    <definedName name="HTML23_11" hidden="true">1</definedName>
+    <definedName name="HTML23_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\hyo1.htm"</definedName>
+    <definedName name="HTML23_2" hidden="true">1</definedName>
+    <definedName name="HTML23_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML23_4" hidden="true">"情報処理試験　部門別合格者数"</definedName>
+    <definedName name="HTML23_5" hidden="true">""</definedName>
+    <definedName name="HTML23_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML23_6" hidden="true">-4146</definedName>
+    <definedName name="HTML23_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML23_7" hidden="true">-4146</definedName>
+    <definedName name="HTML23_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML23_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML24_1" hidden="true">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$P$54"</definedName>
+    <definedName name="HTML24_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML24_11" hidden="true">1</definedName>
+    <definedName name="HTML24_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\pj.htm"</definedName>
+    <definedName name="HTML24_2" hidden="true">1</definedName>
+    <definedName name="HTML24_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML24_4" hidden="true">"ＰＪ管理勉強会"</definedName>
+    <definedName name="HTML24_5" hidden="true">""</definedName>
+    <definedName name="HTML24_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML24_6" hidden="true">-4146</definedName>
+    <definedName name="HTML24_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML24_7" hidden="true">-4146</definedName>
+    <definedName name="HTML24_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML24_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML25_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$124"</definedName>
+    <definedName name="HTML25_10" hidden="true">"noda@ts.osaka.omronsoft"</definedName>
+    <definedName name="HTML25_11" hidden="true">1</definedName>
+    <definedName name="HTML25_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML25_2" hidden="true">1</definedName>
+    <definedName name="HTML25_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML25_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML25_5" hidden="true">""</definedName>
+    <definedName name="HTML25_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML25_6" hidden="true">-4146</definedName>
+    <definedName name="HTML25_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML25_7" hidden="true">-4146</definedName>
+    <definedName name="HTML25_8" hidden="true">"97/08/28"</definedName>
+    <definedName name="HTML25_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML26_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$84"</definedName>
+    <definedName name="HTML26_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML26_11" hidden="true">1</definedName>
+    <definedName name="HTML26_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML26_2" hidden="true">1</definedName>
+    <definedName name="HTML26_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML26_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML26_5" hidden="true">""</definedName>
+    <definedName name="HTML26_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML26_6" hidden="true">-4146</definedName>
+    <definedName name="HTML26_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML26_7" hidden="true">-4146</definedName>
+    <definedName name="HTML26_8" hidden="true">"97/08/28"</definedName>
+    <definedName name="HTML26_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML27_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$86"</definedName>
+    <definedName name="HTML27_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML27_11" hidden="true">1</definedName>
+    <definedName name="HTML27_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML27_2" hidden="true">1</definedName>
+    <definedName name="HTML27_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML27_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML27_5" hidden="true">""</definedName>
+    <definedName name="HTML27_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML27_6" hidden="true">-4146</definedName>
+    <definedName name="HTML27_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML27_7" hidden="true">-4146</definedName>
+    <definedName name="HTML27_8" hidden="true">"97/08/28"</definedName>
+    <definedName name="HTML27_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML28_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$87"</definedName>
+    <definedName name="HTML28_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML28_11" hidden="true">1</definedName>
+    <definedName name="HTML28_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML28_2" hidden="true">1</definedName>
+    <definedName name="HTML28_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML28_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML28_5" hidden="true">""</definedName>
+    <definedName name="HTML28_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML28_6" hidden="true">-4146</definedName>
+    <definedName name="HTML28_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML28_7" hidden="true">-4146</definedName>
+    <definedName name="HTML28_8" hidden="true">"97/09/01"</definedName>
+    <definedName name="HTML28_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML29_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$100"</definedName>
+    <definedName name="HTML29_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML29_11" hidden="true">1</definedName>
+    <definedName name="HTML29_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML29_2" hidden="true">1</definedName>
+    <definedName name="HTML29_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML29_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML29_5" hidden="true">""</definedName>
+    <definedName name="HTML29_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML29_6" hidden="true">-4146</definedName>
+    <definedName name="HTML29_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML29_7" hidden="true">-4146</definedName>
+    <definedName name="HTML29_8" hidden="true">"97/09/02"</definedName>
+    <definedName name="HTML29_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML2_1" hidden="true">"[個人データ.xls]情報処理試験!$A$1:$G$112"</definedName>
+    <definedName name="HTML2_10" hidden="true">""</definedName>
+    <definedName name="HTML2_11" hidden="true">1</definedName>
+    <definedName name="HTML2_12" hidden="true">"V:\tsqc\edu\MyHTML.htm"</definedName>
+    <definedName name="HTML2_2" hidden="true">1</definedName>
+    <definedName name="HTML2_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML2_4" hidden="true">"情報処理試験合格者"</definedName>
+    <definedName name="HTML2_5" hidden="true">""</definedName>
+    <definedName name="HTML2_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML2_6" hidden="true">-4146</definedName>
+    <definedName name="HTML2_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML2_7" hidden="true">-4146</definedName>
+    <definedName name="HTML2_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML2_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML30_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$97"</definedName>
+    <definedName name="HTML30_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML30_11" hidden="true">1</definedName>
+    <definedName name="HTML30_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML30_2" hidden="true">1</definedName>
+    <definedName name="HTML30_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML30_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML30_5" hidden="true">""</definedName>
+    <definedName name="HTML30_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML30_6" hidden="true">-4146</definedName>
+    <definedName name="HTML30_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML30_7" hidden="true">-4146</definedName>
+    <definedName name="HTML30_8" hidden="true">"97/09/05"</definedName>
+    <definedName name="HTML30_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML31_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$109"</definedName>
+    <definedName name="HTML31_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML31_11" hidden="true">1</definedName>
+    <definedName name="HTML31_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML31_2" hidden="true">1</definedName>
+    <definedName name="HTML31_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML31_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML31_5" hidden="true">""</definedName>
+    <definedName name="HTML31_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML31_6" hidden="true">-4146</definedName>
+    <definedName name="HTML31_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML31_7" hidden="true">-4146</definedName>
+    <definedName name="HTML31_8" hidden="true">"97/09/26"</definedName>
+    <definedName name="HTML31_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML32_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$112"</definedName>
+    <definedName name="HTML32_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML32_11" hidden="true">1</definedName>
+    <definedName name="HTML32_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML32_2" hidden="true">1</definedName>
+    <definedName name="HTML32_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML32_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML32_5" hidden="true">""</definedName>
+    <definedName name="HTML32_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML32_6" hidden="true">-4146</definedName>
+    <definedName name="HTML32_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML32_7" hidden="true">-4146</definedName>
+    <definedName name="HTML32_8" hidden="true">"97/09/30"</definedName>
+    <definedName name="HTML32_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML33_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$125"</definedName>
+    <definedName name="HTML33_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML33_11" hidden="true">1</definedName>
+    <definedName name="HTML33_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML33_2" hidden="true">1</definedName>
+    <definedName name="HTML33_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML33_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML33_5" hidden="true">""</definedName>
+    <definedName name="HTML33_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML33_6" hidden="true">-4146</definedName>
+    <definedName name="HTML33_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML33_7" hidden="true">-4146</definedName>
+    <definedName name="HTML33_8" hidden="true">"97/10/03"</definedName>
+    <definedName name="HTML33_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML34_1" hidden="true">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$P$61"</definedName>
+    <definedName name="HTML34_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML34_11" hidden="true">1</definedName>
+    <definedName name="HTML34_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\pj.htm"</definedName>
+    <definedName name="HTML34_2" hidden="true">1</definedName>
+    <definedName name="HTML34_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML34_4" hidden="true">"ＰＪ管理勉強会"</definedName>
+    <definedName name="HTML34_5" hidden="true">""</definedName>
+    <definedName name="HTML34_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML34_6" hidden="true">-4146</definedName>
+    <definedName name="HTML34_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML34_7" hidden="true">-4146</definedName>
+    <definedName name="HTML34_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML34_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML35_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$133"</definedName>
+    <definedName name="HTML35_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML35_11" hidden="true">1</definedName>
+    <definedName name="HTML35_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML35_2" hidden="true">1</definedName>
+    <definedName name="HTML35_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML35_4" hidden="true">"９７年度研修受講一覧"</definedName>
+    <definedName name="HTML35_5" hidden="true">""</definedName>
+    <definedName name="HTML35_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML35_6" hidden="true">-4146</definedName>
+    <definedName name="HTML35_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML35_7" hidden="true">-4146</definedName>
+    <definedName name="HTML35_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML35_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML36_1" hidden="true">"[個人データ.xls]通信教育!$A$1:$F$137"</definedName>
+    <definedName name="HTML36_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML36_11" hidden="true">1</definedName>
+    <definedName name="HTML36_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\tsushin.htm"</definedName>
+    <definedName name="HTML36_2" hidden="true">1</definedName>
+    <definedName name="HTML36_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML36_4" hidden="true">"通信教育"</definedName>
+    <definedName name="HTML36_5" hidden="true">""</definedName>
+    <definedName name="HTML36_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML36_6" hidden="true">-4146</definedName>
+    <definedName name="HTML36_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML36_7" hidden="true">-4146</definedName>
+    <definedName name="HTML36_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML36_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML37_1" hidden="true">"[個人データ.xls]通信教育!$H$2:$O$72"</definedName>
+    <definedName name="HTML37_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML37_11" hidden="true">1</definedName>
+    <definedName name="HTML37_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\hyo3.htm"</definedName>
+    <definedName name="HTML37_2" hidden="true">1</definedName>
+    <definedName name="HTML37_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML37_4" hidden="true">"通信教育部門別修了者数一覧"</definedName>
+    <definedName name="HTML37_5" hidden="true">""</definedName>
+    <definedName name="HTML37_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML37_6" hidden="true">-4146</definedName>
+    <definedName name="HTML37_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML37_7" hidden="true">-4146</definedName>
+    <definedName name="HTML37_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML37_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML38_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$25"</definedName>
+    <definedName name="HTML38_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML38_11" hidden="true">1</definedName>
+    <definedName name="HTML38_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML38_2" hidden="true">1</definedName>
+    <definedName name="HTML38_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML38_4" hidden="true">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML38_5" hidden="true">""</definedName>
+    <definedName name="HTML38_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML38_6" hidden="true">-4146</definedName>
+    <definedName name="HTML38_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML38_7" hidden="true">-4146</definedName>
+    <definedName name="HTML38_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML38_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML39_1" hidden="true">"[個人データ.xls]HP合格者!$A$1:$E$119"</definedName>
+    <definedName name="HTML39_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML39_11" hidden="true">1</definedName>
+    <definedName name="HTML39_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML39_2" hidden="true">1</definedName>
+    <definedName name="HTML39_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML39_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML39_5" hidden="true">""</definedName>
+    <definedName name="HTML39_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML39_6" hidden="true">-4146</definedName>
+    <definedName name="HTML39_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML39_7" hidden="true">-4146</definedName>
+    <definedName name="HTML39_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML39_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML3_1" hidden="true">"[個人データ.xls]情報処理試験!$I$2:$R$88"</definedName>
+    <definedName name="HTML3_10" hidden="true">""</definedName>
+    <definedName name="HTML3_11" hidden="true">1</definedName>
+    <definedName name="HTML3_12" hidden="true">"V:\tsqc\edu\hyo1.htm"</definedName>
+    <definedName name="HTML3_2" hidden="true">1</definedName>
+    <definedName name="HTML3_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML3_4" hidden="true">"情報処理試験　年度別部門別合格者数"</definedName>
+    <definedName name="HTML3_5" hidden="true">""</definedName>
+    <definedName name="HTML3_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML3_6" hidden="true">-4146</definedName>
+    <definedName name="HTML3_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML3_7" hidden="true">-4146</definedName>
+    <definedName name="HTML3_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML3_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML40_1" hidden="true">"[個人データ.xls]情報処理試験!$J$2:$S$113"</definedName>
+    <definedName name="HTML40_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML40_11" hidden="true">1</definedName>
+    <definedName name="HTML40_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\hyo1.htm"</definedName>
+    <definedName name="HTML40_2" hidden="true">1</definedName>
+    <definedName name="HTML40_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML40_4" hidden="true">"情報処理試験部門別合格者数一覧"</definedName>
+    <definedName name="HTML40_5" hidden="true">""</definedName>
+    <definedName name="HTML40_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML40_6" hidden="true">-4146</definedName>
+    <definedName name="HTML40_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML40_7" hidden="true">-4146</definedName>
+    <definedName name="HTML40_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML40_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML41_1" hidden="true">"[個人データ.xls]ＭＣＰ!$J$2:$Q$11"</definedName>
+    <definedName name="HTML41_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML41_11" hidden="true">1</definedName>
+    <definedName name="HTML41_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
+    <definedName name="HTML41_2" hidden="true">1</definedName>
+    <definedName name="HTML41_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML41_4" hidden="true">"ＭＣＰ部門別合格者数一覧"</definedName>
+    <definedName name="HTML41_5" hidden="true">""</definedName>
+    <definedName name="HTML41_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML41_6" hidden="true">-4146</definedName>
+    <definedName name="HTML41_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML41_7" hidden="true">-4146</definedName>
+    <definedName name="HTML41_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML41_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML42_1" hidden="true">"[個人データ.xls]HP合格者!$A$2:$E$119"</definedName>
+    <definedName name="HTML42_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML42_11" hidden="true">1</definedName>
+    <definedName name="HTML42_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML42_2" hidden="true">1</definedName>
+    <definedName name="HTML42_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML42_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML42_5" hidden="true">""</definedName>
+    <definedName name="HTML42_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML42_6" hidden="true">-4146</definedName>
+    <definedName name="HTML42_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML42_7" hidden="true">-4146</definedName>
+    <definedName name="HTML42_8" hidden="true">"98/01/05"</definedName>
+    <definedName name="HTML42_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML43_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$170"</definedName>
+    <definedName name="HTML43_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML43_11" hidden="true">1</definedName>
+    <definedName name="HTML43_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML43_2" hidden="true">1</definedName>
+    <definedName name="HTML43_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML43_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML43_5" hidden="true">""</definedName>
+    <definedName name="HTML43_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML43_6" hidden="true">-4146</definedName>
+    <definedName name="HTML43_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML43_7" hidden="true">-4146</definedName>
+    <definedName name="HTML43_8" hidden="true">"98/01/07"</definedName>
+    <definedName name="HTML43_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML44_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$26"</definedName>
+    <definedName name="HTML44_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML44_11" hidden="true">1</definedName>
+    <definedName name="HTML44_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML44_2" hidden="true">1</definedName>
+    <definedName name="HTML44_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML44_4" hidden="true">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML44_5" hidden="true">""</definedName>
+    <definedName name="HTML44_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML44_6" hidden="true">-4146</definedName>
+    <definedName name="HTML44_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML44_7" hidden="true">-4146</definedName>
+    <definedName name="HTML44_8" hidden="true">"98/01/09"</definedName>
+    <definedName name="HTML44_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML45_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$27"</definedName>
+    <definedName name="HTML45_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML45_11" hidden="true">1</definedName>
+    <definedName name="HTML45_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML45_2" hidden="true">1</definedName>
+    <definedName name="HTML45_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML45_4" hidden="true">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML45_5" hidden="true">""</definedName>
+    <definedName name="HTML45_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML45_6" hidden="true">-4146</definedName>
+    <definedName name="HTML45_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML45_7" hidden="true">-4146</definedName>
+    <definedName name="HTML45_8" hidden="true">"98/01/16"</definedName>
+    <definedName name="HTML45_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML46_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$172"</definedName>
+    <definedName name="HTML46_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML46_11" hidden="true">1</definedName>
+    <definedName name="HTML46_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML46_2" hidden="true">1</definedName>
+    <definedName name="HTML46_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML46_4" hidden="true">"９７年度研修受講一覧"</definedName>
+    <definedName name="HTML46_5" hidden="true">""</definedName>
+    <definedName name="HTML46_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML46_6" hidden="true">-4146</definedName>
+    <definedName name="HTML46_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML46_7" hidden="true">-4146</definedName>
+    <definedName name="HTML46_8" hidden="true">"98/01/19"</definedName>
+    <definedName name="HTML46_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML47_1" hidden="true">"[個人データ.xls]HP合格者!$A$2:$E$123"</definedName>
+    <definedName name="HTML47_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML47_11" hidden="true">1</definedName>
+    <definedName name="HTML47_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML47_2" hidden="true">1</definedName>
+    <definedName name="HTML47_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML47_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML47_5" hidden="true">""</definedName>
+    <definedName name="HTML47_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML47_6" hidden="true">-4146</definedName>
+    <definedName name="HTML47_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML47_7" hidden="true">-4146</definedName>
+    <definedName name="HTML47_8" hidden="true">"98/01/19"</definedName>
+    <definedName name="HTML47_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML48_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$29"</definedName>
+    <definedName name="HTML48_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML48_11" hidden="true">1</definedName>
+    <definedName name="HTML48_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML48_2" hidden="true">1</definedName>
+    <definedName name="HTML48_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML48_4" hidden="true">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML48_5" hidden="true">""</definedName>
+    <definedName name="HTML48_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML48_6" hidden="true">-4146</definedName>
+    <definedName name="HTML48_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML48_7" hidden="true">-4146</definedName>
+    <definedName name="HTML48_8" hidden="true">"98/01/19"</definedName>
+    <definedName name="HTML48_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML49_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$33"</definedName>
+    <definedName name="HTML49_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML49_11" hidden="true">1</definedName>
+    <definedName name="HTML49_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML49_2" hidden="true">1</definedName>
+    <definedName name="HTML49_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML49_4" hidden="true">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML49_5" hidden="true">""</definedName>
+    <definedName name="HTML49_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML49_6" hidden="true">-4146</definedName>
+    <definedName name="HTML49_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML49_7" hidden="true">-4146</definedName>
+    <definedName name="HTML49_8" hidden="true">"98/01/20"</definedName>
+    <definedName name="HTML49_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML4_1" hidden="true">"[個人データ.xls]ＭＣＰ!$A$1:$H$15"</definedName>
+    <definedName name="HTML4_10" hidden="true">""</definedName>
+    <definedName name="HTML4_11" hidden="true">1</definedName>
+    <definedName name="HTML4_12" hidden="true">"V:\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML4_2" hidden="true">1</definedName>
+    <definedName name="HTML4_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML4_4" hidden="true">"ＭＣＰ合格者"</definedName>
+    <definedName name="HTML4_5" hidden="true">""</definedName>
+    <definedName name="HTML4_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML4_6" hidden="true">-4146</definedName>
+    <definedName name="HTML4_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML4_7" hidden="true">-4146</definedName>
+    <definedName name="HTML4_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML4_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML50_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$173"</definedName>
+    <definedName name="HTML50_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML50_11" hidden="true">1</definedName>
+    <definedName name="HTML50_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML50_2" hidden="true">1</definedName>
+    <definedName name="HTML50_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML50_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML50_5" hidden="true">""</definedName>
+    <definedName name="HTML50_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML50_6" hidden="true">-4146</definedName>
+    <definedName name="HTML50_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML50_7" hidden="true">-4146</definedName>
+    <definedName name="HTML50_8" hidden="true">"98/01/20"</definedName>
+    <definedName name="HTML50_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML51_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$40"</definedName>
+    <definedName name="HTML51_10" hidden="true">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML51_11" hidden="true">1</definedName>
+    <definedName name="HTML51_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML51_2" hidden="true">1</definedName>
+    <definedName name="HTML51_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML51_4" hidden="true">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML51_5" hidden="true">""</definedName>
+    <definedName name="HTML51_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML51_6" hidden="true">-4146</definedName>
+    <definedName name="HTML51_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML51_7" hidden="true">-4146</definedName>
+    <definedName name="HTML51_8" hidden="true">"98/02/12"</definedName>
+    <definedName name="HTML51_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML52_1" hidden="true">"[個人データ.xls]HP合格者!$A$2:$E$124"</definedName>
+    <definedName name="HTML52_10" hidden="true">""</definedName>
+    <definedName name="HTML52_11" hidden="true">1</definedName>
+    <definedName name="HTML52_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML52_2" hidden="true">1</definedName>
+    <definedName name="HTML52_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML52_4" hidden="true">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML52_5" hidden="true">""</definedName>
+    <definedName name="HTML52_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML52_6" hidden="true">-4146</definedName>
+    <definedName name="HTML52_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML52_7" hidden="true">-4146</definedName>
+    <definedName name="HTML52_8" hidden="true">"98/01/28"</definedName>
+    <definedName name="HTML52_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML53_1" hidden="true">"[個人データ.xls]通信教育!$A$1:$F$138"</definedName>
+    <definedName name="HTML53_10" hidden="true">""</definedName>
+    <definedName name="HTML53_11" hidden="true">1</definedName>
+    <definedName name="HTML53_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\tsushin.htm"</definedName>
+    <definedName name="HTML53_2" hidden="true">1</definedName>
+    <definedName name="HTML53_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML53_4" hidden="true">"通信教育受講終了一覧"</definedName>
+    <definedName name="HTML53_5" hidden="true">""</definedName>
+    <definedName name="HTML53_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML53_6" hidden="true">-4146</definedName>
+    <definedName name="HTML53_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML53_7" hidden="true">-4146</definedName>
+    <definedName name="HTML53_8" hidden="true">"98/02/03"</definedName>
+    <definedName name="HTML53_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML54_1" hidden="true">"[個人データ.xls]ＭＣＰ!$J$2:$S$11"</definedName>
+    <definedName name="HTML54_10" hidden="true">""</definedName>
+    <definedName name="HTML54_11" hidden="true">1</definedName>
+    <definedName name="HTML54_12" hidden="true">"\\Otshp1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
+    <definedName name="HTML54_2" hidden="true">1</definedName>
+    <definedName name="HTML54_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML54_4" hidden="true">"ＭＣＰ部門別合格者数一覧"</definedName>
+    <definedName name="HTML54_5" hidden="true">""</definedName>
+    <definedName name="HTML54_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML54_6" hidden="true">-4146</definedName>
+    <definedName name="HTML54_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML54_7" hidden="true">-4146</definedName>
+    <definedName name="HTML54_8" hidden="true">"98/02/03"</definedName>
+    <definedName name="HTML54_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML5_1" hidden="true">"'[個人データ.xls]９６年度研修'!$A$1:$B$150,$D$1:$E$150,$G$1:$G$150"</definedName>
+    <definedName name="HTML5_10" hidden="true">""</definedName>
+    <definedName name="HTML5_11" hidden="true">1</definedName>
+    <definedName name="HTML5_12" hidden="true">"V:\tsqc\edu\96kensyu.htm"</definedName>
+    <definedName name="HTML5_2" hidden="true">1</definedName>
+    <definedName name="HTML5_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML5_4" hidden="true">"９６年度研修受講者一覧"</definedName>
+    <definedName name="HTML5_5" hidden="true">""</definedName>
+    <definedName name="HTML5_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML5_6" hidden="true">-4146</definedName>
+    <definedName name="HTML5_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML5_7" hidden="true">-4146</definedName>
+    <definedName name="HTML5_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML5_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML6_1" hidden="true">"[個人データ.xls]HPＭＣＰ!$A$1:$F$15"</definedName>
+    <definedName name="HTML6_10" hidden="true">""</definedName>
+    <definedName name="HTML6_11" hidden="true">1</definedName>
+    <definedName name="HTML6_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML6_2" hidden="true">1</definedName>
+    <definedName name="HTML6_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML6_4" hidden="true">"ＭＣＰ合格者"</definedName>
+    <definedName name="HTML6_5" hidden="true">""</definedName>
+    <definedName name="HTML6_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML6_6" hidden="true">-4146</definedName>
+    <definedName name="HTML6_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML6_7" hidden="true">-4146</definedName>
+    <definedName name="HTML6_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML6_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML7_1" hidden="true">"[個人データ.xls]Sheet2!$A$1:$E$46"</definedName>
+    <definedName name="HTML7_10" hidden="true">""</definedName>
+    <definedName name="HTML7_11" hidden="true">1</definedName>
+    <definedName name="HTML7_12" hidden="true">"V:\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML7_2" hidden="true">1</definedName>
+    <definedName name="HTML7_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML7_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML7_5" hidden="true">""</definedName>
+    <definedName name="HTML7_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML7_6" hidden="true">-4146</definedName>
+    <definedName name="HTML7_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML7_7" hidden="true">-4146</definedName>
+    <definedName name="HTML7_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML7_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML8_1" hidden="true">"[個人データ.xls]HP９６年度研修!$A$1:$E$150"</definedName>
+    <definedName name="HTML8_10" hidden="true">""</definedName>
+    <definedName name="HTML8_11" hidden="true">1</definedName>
+    <definedName name="HTML8_12" hidden="true">"\\OTSHP1\wwwroot\tsqc\edu\96kensyu.htm"</definedName>
+    <definedName name="HTML8_2" hidden="true">1</definedName>
+    <definedName name="HTML8_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML8_4" hidden="true">"９６年度研修受講者一覧"</definedName>
+    <definedName name="HTML8_5" hidden="true">""</definedName>
+    <definedName name="HTML8_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML8_6" hidden="true">-4146</definedName>
+    <definedName name="HTML8_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML8_7" hidden="true">-4146</definedName>
+    <definedName name="HTML8_8" hidden="true">"97/08/04"</definedName>
+    <definedName name="HTML8_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML9_1" hidden="true">"[個人データ.xls]HP９７年度研修!$A$1:$E$46"</definedName>
+    <definedName name="HTML9_10" hidden="true">""</definedName>
+    <definedName name="HTML9_11" hidden="true">1</definedName>
+    <definedName name="HTML9_12" hidden="true">"V:\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML9_2" hidden="true">1</definedName>
+    <definedName name="HTML9_3" hidden="true">"個人データ.xls"</definedName>
+    <definedName name="HTML9_4" hidden="true">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML9_5" hidden="true">""</definedName>
+    <definedName name="HTML9_6" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML9_6" hidden="true">-4146</definedName>
+    <definedName name="HTML9_7" localSheetId="1" hidden="true">-4146</definedName>
+    <definedName name="HTML9_7" hidden="true">-4146</definedName>
+    <definedName name="HTML9_8" hidden="true">"97/06/20"</definedName>
+    <definedName name="HTML9_9" hidden="true">"野田美由希"</definedName>
+    <definedName name="HTML_CodePage" hidden="true">932</definedName>
+    <definedName name="HTML_Control" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="HTML_Control" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="HTML_Description" hidden="true">""</definedName>
+    <definedName name="HTML_Email" hidden="true">""</definedName>
+    <definedName name="HTML_Header" hidden="true">"ﾒ画1 (2)"</definedName>
+    <definedName name="HTML_LastUpdate" hidden="true">"00/05/23"</definedName>
+    <definedName name="HTML_LineAfter" hidden="true">FALSE</definedName>
+    <definedName name="HTML_LineBefore" hidden="true">FALSE</definedName>
+    <definedName name="HTML_Name" hidden="true">"大阪業務部"</definedName>
+    <definedName name="HTML_OBDlg2" hidden="true">TRUE</definedName>
+    <definedName name="HTML_OBDlg4" hidden="true">TRUE</definedName>
+    <definedName name="HTML_OS" hidden="true">0</definedName>
+    <definedName name="HTML_PathFile" hidden="true">"C:\My Documents\MyHTML.htm"</definedName>
+    <definedName name="HTML_Title" hidden="true">"購買(画面)"</definedName>
+    <definedName name="HTMLCount" hidden="true">54</definedName>
+    <definedName name="Print_Title" localSheetId="1">#REF!</definedName>
+    <definedName name="Print_Title" localSheetId="2">#REF!</definedName>
+    <definedName name="Print_Title" localSheetId="3">#REF!</definedName>
+    <definedName name="Print_Title" localSheetId="4">#REF!</definedName>
     <definedName name="Print_Title" localSheetId="5">#REF!</definedName>
-    <definedName name="Print_Title" localSheetId="4">#REF!</definedName>
-    <definedName name="Print_Title" localSheetId="3">#REF!</definedName>
     <definedName name="Print_Title" localSheetId="6">#REF!</definedName>
-    <definedName name="Print_Title" localSheetId="2">#REF!</definedName>
-    <definedName name="Print_Title" localSheetId="1">#REF!</definedName>
     <definedName name="Print_Title">#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="5">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="4">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="3">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="6">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="2">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="1">[2]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3">[2]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="1">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="2">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="3">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="4">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="5">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="6">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3">'外注業務_3'!#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="1">#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="2">#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="3">#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="4">#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="5">#REF!</definedName>
-    <definedName name="S_GAIRAI_31" localSheetId="4">#REF!</definedName>
-    <definedName name="S_GAIRAI_31" localSheetId="3">#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="6">#REF!</definedName>
-    <definedName name="S_GAIRAI_31" localSheetId="2">#REF!</definedName>
-    <definedName name="S_GAIRAI_31" localSheetId="1">#REF!</definedName>
     <definedName name="S_GAIRAI_31">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="1">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="2">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="3">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="4">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="5">#REF!</definedName>
-    <definedName name="SSGAIIRAI_3" localSheetId="4">#REF!</definedName>
-    <definedName name="SSGAIIRAI_3" localSheetId="3">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="6">#REF!</definedName>
-    <definedName name="SSGAIIRAI_3" localSheetId="2">#REF!</definedName>
-    <definedName name="SSGAIIRAI_3" localSheetId="1">#REF!</definedName>
     <definedName name="SSGAIIRAI_3">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="1">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="2">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="3">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="4">#REF!</definedName>
     <definedName name="STGAIIRAI_3" localSheetId="5">#REF!</definedName>
-    <definedName name="STGAIIRAI_3" localSheetId="4">#REF!</definedName>
-    <definedName name="STGAIIRAI_3" localSheetId="3">#REF!</definedName>
     <definedName name="STGAIIRAI_3" localSheetId="6">#REF!</definedName>
-    <definedName name="STGAIIRAI_3" localSheetId="2">#REF!</definedName>
-    <definedName name="STGAIIRAI_3" localSheetId="1">#REF!</definedName>
     <definedName name="STGAIIRAI_3">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="1">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="2">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="3">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="4">#REF!</definedName>
     <definedName name="T_TANKA_F" localSheetId="5">#REF!</definedName>
-    <definedName name="T_TANKA_F" localSheetId="4">#REF!</definedName>
-    <definedName name="T_TANKA_F" localSheetId="3">#REF!</definedName>
     <definedName name="T_TANKA_F" localSheetId="6">#REF!</definedName>
-    <definedName name="T_TANKA_F" localSheetId="2">#REF!</definedName>
-    <definedName name="T_TANKA_F" localSheetId="1">#REF!</definedName>
     <definedName name="T_TANKA_F">#REF!</definedName>
-    <definedName name="tttt" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="tttt" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="wrn.ORIG." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="wrn.ORIG." hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="5" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="4" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="3" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="6" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="5" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="4" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="3" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="6" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" hidden="1">#REF!</definedName>
-    <definedName name="あ" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="あ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="ああ" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="ああ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
-    <definedName name="スケジュール" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="スケジュール" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="スケジュールORG" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="スケジュールORG" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="tttt" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="tttt" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.ORIG." localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.ORIG." hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="1" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="2" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="3" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="4" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="5" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="6" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="1" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="2" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="3" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="4" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="5" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="6" hidden="true">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" hidden="true">#REF!</definedName>
+    <definedName name="あ" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="あ" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="ああ" localSheetId="0" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="ああ" hidden="true">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="スケジュール" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュール" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュールORG" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュールORG" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="ソフト名">[3]定数!$B$2:$B$6</definedName>
     <definedName name="可否" localSheetId="0">[4]定数!$A$2:$A$4</definedName>
     <definedName name="可否">[3]定数!$A$2:$A$4</definedName>
-    <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
-    <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:X44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>画面名</t>
   </si>
@@ -932,11 +932,9 @@
   </si>
   <si>
     <t>基本給マスタ機能結合テスト項目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本給マスタ機能作成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
@@ -952,11 +950,9 @@
   </si>
   <si>
     <t>　　社内管理システム_基本給マスタ機能作成結合テスト</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>孫曄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>項目</t>
@@ -981,268 +977,77 @@
   </si>
   <si>
     <t>リスト結果行のデータが表示される</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>新規追加</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>全エラーメッセージチェック</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給マスタ機能画面</t>
-    <rPh sb="0" eb="10">
-      <t>ケイヤクジョウホウガメン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給マスタ機能更新画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給マスタ機能新規画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">機能欄の「基本給情報管理」ボタンをクリックする
 </t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給機能結果の「更新」ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給機能の「新規」ボタンをクリック</t>
-    <rPh sb="9" eb="11">
-      <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給IDは採番され、画面に表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給情報の表示</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給情報管理画面にて
 ①「社員」項目に、任意選択する。　参照　”テストデータ_社員リスト”　シート
 ②「検索」ボタンをクリック</t>
-    <rPh sb="0" eb="4">
-      <t>ケイヤクジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>選択された社員の基本給情報が画面に表示。
 参照：　テストデータ_基本給情報</t>
-    <rPh sb="0" eb="37">
-      <t>ケイヤクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>既存基本給情報の更新</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給情報管理画面にて、「検索」ボタンをクリックする後表示する画面に、更新ボタンが見える　　　　　　　　　　　　　　　　　　①更新ボタンをクリック、更新画面を表示する。　　　　　　　　②更新したい値を入力して登録ボタンをクリックする</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>存在していない基本給情報の新規追加</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給情報管理画面にて、　　　　　　　　　　　　　①「新規追加」ボタンをクリックする　　　　　　　　　②追加したい値を入力して登録ボタンをクリックする</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>画面に入力した値がDBに更新されること。　
 参照　テストデータ_更新</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面に入力した値がDBに追加される　　　　　　　　　　参照　　テキスト＿新規追加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>対象テーブル：employee</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>結合テスト項目</t>
-    <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>employeeID</t>
@@ -1303,7 +1108,6 @@
   </si>
   <si>
     <t>No1</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>E00001</t>
@@ -1355,30 +1159,21 @@
   </si>
   <si>
     <t>E00002</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>郭  煥光2</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No1,No.4</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>E00003</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>郭  煥光3</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>対象テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>20210101</t>
@@ -1406,9 +1201,6 @@
   </si>
   <si>
     <t>開発支援</t>
-  </si>
-  <si>
-    <t>E00002</t>
   </si>
   <si>
     <t>C00003</t>
@@ -1465,26 +1257,9 @@
     <t xml:space="preserve">	①「社員」項目のプルーダウンに社員IDのリストが表示される。                     参照　テストデータ_社員リスト　シート。
 	②空の社員リストが表示。
 	③新規ボタンが表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ｍ_basesalary</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>baseSalary</t>
@@ -1530,58 +1305,43 @@
   </si>
   <si>
     <t>基本給マスタ機能の結合テスト仕様書作成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面にてエラーメッセージ表示</t>
   </si>
   <si>
     <t>更新画面にて、基本給が空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面にて、不足減単価(h)が空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面にて、残業加単価(h)が空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面にて、稼働期間Fromが空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面にて、稼働期間Toが空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本給を入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”不足減単価(h)を入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”残業加単価(h)を入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Fromを入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Toを入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全エラーメッセージチェック</t>
   </si>
   <si>
     <t xml:space="preserve">更新画面にてエラーメッセージ表示
 </t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>基本給情報更新画面の上の部分に下記メッセージが表示される：
@@ -1592,18 +1352,9 @@
 ”稼働期間Fromを入力してください。”
 ”稼働期間Toを入力してください。”
 ”利用ステータスを入力してください。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No5</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>入力値</t>
@@ -1619,226 +1370,78 @@
   </si>
   <si>
     <t>基本給ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本給</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>残業不足時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>残業時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>稼働時間From</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>稼働時間To</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>する</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作成日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新後の値</t>
   </si>
   <si>
     <t>画面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>●S001は選択された基本給ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseSalaryID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aseSalary</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inusHour</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lusHour</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kPeriodFrom</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kPeriodTo</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nsertDate</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdateDate</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>●　status(進行ステータス）　0:進行中、1:終了(ラジオボタン）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新規追加後の値</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”基本給に数値のみを入力してください。”を表示します。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”不足減単価(h)に数値のみを入力してください。”を表示します</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”残業加単価(h)に数字のみを入力してください。”を表示します</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Fromに数値のみを入力してください。”を表示します</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面の残業加単価(h)の入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面の不足減単価(h)の入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面の基本給項目の入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面の稼働期間Fromの入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Toに数値のみを入力してください。”を表示します</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面の稼働期間Toの入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新画面にて、下記項目が数字ではない場合に、「登録」ボタンをクリック
@@ -1849,27 +1452,18 @@
 ⑤稼働期間From
 ⑥稼働期間To
 ⑦利用ステータス</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫曄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第一１回テスト</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第二回テスト</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2886,15 +2480,35 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="2"/>
+    <col min="1" max="1" width="5.25" style="2"/>
+    <col min="2" max="2" width="5.25" style="2"/>
+    <col min="3" max="3" width="5.25" style="2"/>
+    <col min="4" max="4" width="5.25" style="2"/>
+    <col min="5" max="5" width="5.25" style="2"/>
+    <col min="6" max="6" width="5.25" style="2"/>
+    <col min="7" max="7" width="5.25" style="2"/>
+    <col min="8" max="8" width="5.25" style="2"/>
+    <col min="9" max="9" width="5.25" style="2"/>
+    <col min="10" max="10" width="5.25" style="2"/>
+    <col min="11" max="11" width="5.25" style="2"/>
+    <col min="12" max="12" width="5.25" style="2"/>
+    <col min="13" max="13" width="5.25" style="2"/>
+    <col min="14" max="14" width="5.25" style="2"/>
+    <col min="15" max="15" width="5.25" style="2"/>
+    <col min="16" max="16" width="5.25" style="2"/>
+    <col min="17" max="17" width="5.25" style="2"/>
+    <col min="18" max="18" width="5.25" style="2"/>
+    <col min="19" max="19" width="5.25" style="2"/>
+    <col min="20" max="20" width="5.25" style="2"/>
+    <col min="21" max="21" width="5.25" style="2"/>
     <col min="22" max="22" width="5.25" style="1"/>
     <col min="23" max="23" width="5.25" style="2"/>
     <col min="24" max="16384" width="5.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" s="13"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2920,56 +2534,56 @@
       <c r="W1" s="12"/>
       <c r="X1" s="11"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1">
+    <row r="2" customFormat="1" s="3">
       <c r="A2" s="8"/>
       <c r="B2" s="10"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1">
+    <row r="3" customFormat="1" s="3">
       <c r="A3" s="8"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1">
+    <row r="4" customFormat="1" s="3">
       <c r="A4" s="8"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1">
+    <row r="5" customFormat="1" s="3">
       <c r="A5" s="8"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1">
+    <row r="6" customFormat="1" s="3">
       <c r="A6" s="8"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1">
+    <row r="7" customFormat="1" s="3">
       <c r="A7" s="8"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1">
+    <row r="8" customFormat="1" s="3">
       <c r="A8" s="8"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1">
+    <row r="9" customFormat="1" s="3">
       <c r="A9" s="8"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1">
+    <row r="10" customFormat="1" s="3">
       <c r="A10" s="8"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1">
+    <row r="11" customFormat="1" s="3">
       <c r="A11" s="8"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1">
+    <row r="12" customFormat="1" s="3">
       <c r="A12" s="8"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="3" customFormat="1">
+    <row r="13" customFormat="1" s="3">
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="14" ht="16" customFormat="1" s="3">
       <c r="A14" s="8"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -2987,7 +2601,7 @@
       <c r="R14" s="30"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="23.5" customHeight="1">
+    <row r="15" customHeight="1" ht="23" customFormat="1" s="3">
       <c r="A15" s="8"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -3007,7 +2621,7 @@
       <c r="R15" s="30"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.5">
+    <row r="16" ht="29" customFormat="1" s="3">
       <c r="A16" s="8"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -3027,7 +2641,7 @@
       <c r="R16" s="30"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="17" ht="16" customFormat="1" s="3">
       <c r="A17" s="8"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -3045,7 +2659,7 @@
       <c r="R17" s="30"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
+    <row r="18" customHeight="1" ht="14" customFormat="1" s="3">
       <c r="A18" s="8"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -3065,7 +2679,7 @@
       <c r="R18" s="63"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" customHeight="1" ht="14" customFormat="1" s="3">
       <c r="A19" s="8"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -3085,7 +2699,7 @@
       <c r="R19" s="68"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" customHeight="1" ht="14" customFormat="1" s="3">
       <c r="A20" s="8"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -3103,7 +2717,7 @@
       <c r="R20" s="71"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="21" ht="16" customFormat="1" s="3">
       <c r="A21" s="8"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -3121,7 +2735,7 @@
       <c r="R21" s="30"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.5">
+    <row r="22" ht="18" customFormat="1" s="3">
       <c r="A22" s="8"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -3141,7 +2755,7 @@
       <c r="R22" s="65"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="23" ht="16" customFormat="1" s="3">
       <c r="A23" s="8"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -3161,7 +2775,7 @@
       <c r="R23" s="74"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="24" ht="16" customFormat="1" s="3">
       <c r="A24" s="8"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -3179,7 +2793,7 @@
       <c r="R24" s="77"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="25" ht="16" customFormat="1" s="3">
       <c r="A25" s="8"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3197,7 +2811,7 @@
       <c r="R25" s="30"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13">
+    <row r="26" ht="12" customFormat="1" s="3">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3211,79 +2825,79 @@
       <c r="Q26" s="9"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" s="3" customFormat="1">
+    <row r="27" customFormat="1" s="3">
       <c r="A27" s="8"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" s="3" customFormat="1">
+    <row r="28" customFormat="1" s="3">
       <c r="A28" s="8"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" s="3" customFormat="1">
+    <row r="29" customFormat="1" s="3">
       <c r="A29" s="8"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" s="3" customFormat="1">
+    <row r="30" customFormat="1" s="3">
       <c r="A30" s="8"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" s="3" customFormat="1">
+    <row r="31" customFormat="1" s="3">
       <c r="A31" s="8"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" s="3" customFormat="1">
+    <row r="32" customFormat="1" s="3">
       <c r="A32" s="8"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" s="3" customFormat="1">
+    <row r="33" customFormat="1" s="3">
       <c r="A33" s="8"/>
       <c r="K33" s="2"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" s="3" customFormat="1">
+    <row r="34" customFormat="1" s="3">
       <c r="A34" s="8"/>
       <c r="K34" s="2"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" s="3" customFormat="1">
+    <row r="35" customFormat="1" s="3">
       <c r="A35" s="8"/>
       <c r="K35" s="2"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" s="3" customFormat="1">
+    <row r="36" customFormat="1" s="3">
       <c r="A36" s="8"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" s="3" customFormat="1">
+    <row r="37" customFormat="1" s="3">
       <c r="A37" s="8"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" s="3" customFormat="1">
+    <row r="38" customFormat="1" s="3">
       <c r="A38" s="8"/>
       <c r="K38" s="2"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" s="3" customFormat="1">
+    <row r="39" customFormat="1" s="3">
       <c r="A39" s="8"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" s="3" customFormat="1">
+    <row r="40" customFormat="1" s="3">
       <c r="A40" s="8"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" s="3" customFormat="1">
+    <row r="41" customFormat="1" s="3">
       <c r="A41" s="8"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" s="3" customFormat="1">
+    <row r="42" customFormat="1" s="3">
       <c r="A42" s="8"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" s="3" customFormat="1">
+    <row r="43" customFormat="1" s="3">
       <c r="A43" s="8"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" s="3" customFormat="1">
+    <row r="44" customFormat="1" s="3">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3309,7 +2923,7 @@
       <c r="W44" s="5"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="49" spans="4:11">
+    <row r="49">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3319,7 +2933,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="4:11">
+    <row r="50">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3329,7 +2943,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="4:11">
+    <row r="51">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3339,7 +2953,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="4:11">
+    <row r="52">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3349,7 +2963,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="4:11">
+    <row r="53">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3359,7 +2973,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="4:11">
+    <row r="54">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3371,11 +2985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="H15:Q15"/>
     <mergeCell ref="G18:R18"/>
+    <mergeCell ref="G19:R20"/>
     <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G19:R20"/>
     <mergeCell ref="G23:R24"/>
-    <mergeCell ref="H15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3394,7 +3008,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
@@ -3404,7 +3018,7 @@
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.5">
+    <row r="2" ht="18">
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
         <v>10</v>
@@ -3412,7 +3026,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:5" ht="19" thickBot="1">
+    <row r="3" ht="18">
       <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
@@ -3426,7 +3040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19" thickTop="1">
+    <row r="4" ht="18">
       <c r="B4" s="27">
         <v>1</v>
       </c>
@@ -3440,12 +3054,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.5">
+    <row r="5" ht="18">
       <c r="B5" s="29">
         <v>2</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="43">
         <v>44700</v>
@@ -3454,7 +3068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18.5">
+    <row r="6" ht="18">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -3462,67 +3076,67 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3539,11 +3153,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.9140625" style="17" customWidth="1"/>
@@ -3559,19 +3173,19 @@
     <col min="13" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1">
       <c r="G1" s="80" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H1" s="79"/>
       <c r="I1" s="79"/>
       <c r="J1" s="80" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K1" s="79"/>
       <c r="L1" s="79"/>
     </row>
-    <row r="2" spans="1:12" ht="18.5">
+    <row r="2" ht="18">
       <c r="A2" s="16"/>
       <c r="B2" s="23" t="s">
         <v>6</v>
@@ -3607,7 +3221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="108.5" customHeight="1">
+    <row r="3" customHeight="1" ht="108">
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -3621,13 +3235,13 @@
         <v>27</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I3" s="25">
         <v>44704</v>
@@ -3636,7 +3250,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="49" customHeight="1">
+    <row r="4" customHeight="1" ht="48">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -3653,10 +3267,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I4" s="25">
         <v>44704</v>
@@ -3665,7 +3279,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="45" customHeight="1">
+    <row r="5" customHeight="1" ht="45">
       <c r="B5" s="18">
         <v>3</v>
       </c>
@@ -3682,10 +3296,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I5" s="25">
         <v>44704</v>
@@ -3694,7 +3308,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="74">
+    <row r="6" ht="73">
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -3711,10 +3325,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I6" s="25">
         <v>44704</v>
@@ -3723,42 +3337,42 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" s="48" customFormat="1" ht="169.5" customHeight="1">
+    <row r="7" customHeight="1" ht="169" customFormat="1" s="48">
       <c r="B7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>141</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I7" s="25">
         <v>44704</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="L7" s="52">
         <v>44704</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="37">
+    <row r="8" ht="36">
       <c r="B8" s="18">
         <v>6</v>
       </c>
@@ -3766,19 +3380,19 @@
         <v>23</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>129</v>
-      </c>
       <c r="F8" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I8" s="25">
         <v>44704</v>
@@ -3787,7 +3401,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="38" customHeight="1">
+    <row r="9" customHeight="1" ht="37">
       <c r="B9" s="18">
         <v>7</v>
       </c>
@@ -3795,19 +3409,19 @@
         <v>23</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I9" s="25">
         <v>44704</v>
@@ -3816,7 +3430,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="37">
+    <row r="10" ht="36">
       <c r="B10" s="18">
         <v>8</v>
       </c>
@@ -3824,19 +3438,19 @@
         <v>23</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I10" s="25">
         <v>44704</v>
@@ -3845,7 +3459,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="37">
+    <row r="11" ht="36">
       <c r="B11" s="18">
         <v>9</v>
       </c>
@@ -3853,19 +3467,19 @@
         <v>23</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I11" s="25">
         <v>44704</v>
@@ -3874,7 +3488,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="37">
+    <row r="12" ht="36">
       <c r="B12" s="18">
         <v>10</v>
       </c>
@@ -3882,19 +3496,19 @@
         <v>23</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I12" s="25">
         <v>44704</v>
@@ -3903,7 +3517,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="37">
+    <row r="13" ht="36">
       <c r="B13" s="18">
         <v>11</v>
       </c>
@@ -3911,19 +3525,19 @@
         <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I13" s="25">
         <v>44704</v>
@@ -3932,7 +3546,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="37">
+    <row r="14" ht="36">
       <c r="B14" s="18">
         <v>12</v>
       </c>
@@ -3940,19 +3554,19 @@
         <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I14" s="25">
         <v>44704</v>
@@ -3961,7 +3575,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="37">
+    <row r="15" ht="36">
       <c r="B15" s="18">
         <v>13</v>
       </c>
@@ -3969,19 +3583,19 @@
         <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I15" s="25">
         <v>44704</v>
@@ -3990,7 +3604,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="37">
+    <row r="16" ht="36">
       <c r="B16" s="18">
         <v>14</v>
       </c>
@@ -3998,19 +3612,19 @@
         <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I16" s="25">
         <v>44704</v>
@@ -4019,7 +3633,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" ht="37">
+    <row r="17" ht="36">
       <c r="B17" s="18">
         <v>15</v>
       </c>
@@ -4027,19 +3641,19 @@
         <v>23</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I17" s="25">
         <v>44704</v>
@@ -4048,7 +3662,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" ht="83" customHeight="1">
+    <row r="18" customHeight="1" ht="82">
       <c r="B18" s="18">
         <v>16</v>
       </c>
@@ -4065,10 +3679,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I18" s="25">
         <v>44704</v>
@@ -4077,7 +3691,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="66.5" customHeight="1">
+    <row r="19" customHeight="1" ht="66">
       <c r="B19" s="18">
         <v>17</v>
       </c>
@@ -4094,10 +3708,10 @@
         <v>39</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I19" s="25">
         <v>44704</v>
@@ -4125,7 +3739,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" defaultColWidth="8.66406" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.75" style="34" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="34" bestFit="1" customWidth="1"/>
@@ -4144,17 +3758,18 @@
     <col min="15" max="15" width="8.75" style="34" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="34" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="8.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2">
       <c r="B2" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="36" customFormat="1" ht="18.5">
+    <row r="4" ht="18" customFormat="1" s="36">
       <c r="A4" s="36" t="s">
         <v>41</v>
       </c>
@@ -4216,7 +3831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="36" customFormat="1" ht="18.5">
+    <row r="5" ht="18" customFormat="1" s="36">
       <c r="A5" s="36" t="s">
         <v>61</v>
       </c>
@@ -4276,7 +3891,7 @@
       </c>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="36" customFormat="1" ht="18.5">
+    <row r="6" ht="18" customFormat="1" s="36">
       <c r="A6" s="36" t="s">
         <v>61</v>
       </c>
@@ -4306,7 +3921,7 @@
       <c r="S6" s="40"/>
       <c r="T6" s="40"/>
     </row>
-    <row r="7" spans="1:20" s="36" customFormat="1" ht="18.5">
+    <row r="7" ht="18" customFormat="1" s="36">
       <c r="A7" s="36" t="s">
         <v>80</v>
       </c>
@@ -4351,7 +3966,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultRowHeight="18.5" outlineLevelRow="0" defaultColWidth="8.66406" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.25" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.4140625" style="22" bestFit="1" customWidth="1"/>
@@ -4370,32 +3985,32 @@
     <col min="15" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2">
       <c r="B2" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="36" customFormat="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="36">
       <c r="A3" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>117</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>45</v>
@@ -4407,15 +4022,15 @@
         <v>58</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="36" customFormat="1">
+    <row r="4" customFormat="1" s="36">
       <c r="A4" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="38">
         <v>210000</v>
@@ -4436,21 +4051,21 @@
         <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="36" customFormat="1">
+    </row>
+    <row r="5" customFormat="1" s="36">
       <c r="A5" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="38">
         <v>100</v>
@@ -4471,19 +4086,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="36" customFormat="1" hidden="1">
+    </row>
+    <row r="6" hidden="1" customFormat="1" s="36">
       <c r="A6" s="36" t="s">
         <v>80</v>
       </c>
@@ -4506,16 +4121,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>84</v>
@@ -4545,7 +4160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="36" customFormat="1" hidden="1">
+    <row r="7" hidden="1" customFormat="1" s="36">
       <c r="B7" s="39" t="s">
         <v>91</v>
       </c>
@@ -4553,10 +4168,10 @@
         <v>92</v>
       </c>
       <c r="D7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>94</v>
       </c>
       <c r="F7" s="41">
         <v>700000</v>
@@ -4577,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="40" t="s">
         <v>85</v>
@@ -4604,18 +4219,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="36" customFormat="1" hidden="1">
+    <row r="8" hidden="1" customFormat="1" s="36">
       <c r="B8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>99</v>
       </c>
       <c r="F8" s="41">
         <v>650000</v>
@@ -4624,7 +4239,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="41">
         <v>4333</v>
@@ -4663,18 +4278,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="36" customFormat="1" hidden="1">
+    <row r="9" hidden="1" customFormat="1" s="36">
       <c r="B9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>102</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="41">
         <v>580000</v>
@@ -4683,7 +4298,7 @@
         <v>65</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="41">
         <v>3866</v>
@@ -4722,18 +4337,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="36" customFormat="1" hidden="1">
+    <row r="10" hidden="1" customFormat="1" s="36">
       <c r="B10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="41">
         <v>580000</v>
@@ -4742,7 +4357,7 @@
         <v>65</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="41">
         <v>3866</v>
@@ -4781,18 +4396,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="36" customFormat="1" hidden="1">
+    <row r="11" hidden="1" customFormat="1" s="36">
       <c r="B11" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>106</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="41">
         <v>450000</v>
@@ -4801,7 +4416,7 @@
         <v>65</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="41">
         <v>3000</v>
@@ -4840,18 +4455,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="36" customFormat="1" hidden="1">
+    <row r="12" hidden="1" customFormat="1" s="36">
       <c r="B12" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="41">
         <v>660000</v>
@@ -4860,13 +4475,13 @@
         <v>65</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="41">
         <v>4400</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="41">
         <v>3300</v>
@@ -4875,7 +4490,7 @@
         <v>84</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>87</v>
@@ -4899,11 +4514,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="36"/>
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" s="36"/>
       <c r="B20" s="42"/>
     </row>
@@ -4922,7 +4537,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" defaultColWidth="8.66406" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="34"/>
     <col min="2" max="2" width="18.25" style="34" bestFit="1" customWidth="1"/>
@@ -4937,172 +4552,172 @@
     <col min="11" max="16384" width="8.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3">
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4">
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="G4" s="44"/>
     </row>
-    <row r="5" spans="2:10" ht="18.5">
+    <row r="5" ht="18">
       <c r="B5" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6">
       <c r="B6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>146</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" s="58">
         <v>100</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F9" s="56">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10">
       <c r="B10" s="47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="56">
         <v>200</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="F10" s="56">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11">
       <c r="B11" s="47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" s="58">
         <v>300</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="F11" s="56">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12">
       <c r="B12" s="47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="56">
         <v>400</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F12" s="56">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13">
       <c r="B13" s="57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="56">
         <v>500</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="F13" s="56">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14">
       <c r="B14" s="47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="56">
         <v>20220518</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="F14" s="56">
         <v>20220518</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15">
       <c r="B15" s="47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C15" s="58">
         <v>20220519</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F15" s="56">
         <v>20220519</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16">
       <c r="B16" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>45</v>
@@ -5111,12 +4726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18">
       <c r="B18" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5134,7 +4749,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" defaultColWidth="8.66406" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="34"/>
     <col min="2" max="2" width="18.25" style="34" bestFit="1" customWidth="1"/>
@@ -5149,172 +4764,172 @@
     <col min="11" max="16384" width="8.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3">
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4">
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="G4" s="44"/>
     </row>
-    <row r="5" spans="2:10" ht="18.5">
+    <row r="5" ht="18">
       <c r="B5" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6">
       <c r="B6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>146</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" s="58">
         <v>1</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F9" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10">
       <c r="B10" s="47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="56">
         <v>2</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="F10" s="56">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11">
       <c r="B11" s="47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" s="58">
         <v>3</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="F11" s="56">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12">
       <c r="B12" s="47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="56">
         <v>4</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F12" s="56">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13">
       <c r="B13" s="57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="56">
         <v>5</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="F13" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14">
       <c r="B14" s="47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="56">
         <v>20220518</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="F14" s="56">
         <v>20220518</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15">
       <c r="B15" s="47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C15" s="58">
         <v>20220519</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F15" s="56">
         <v>20220519</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16">
       <c r="B16" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>45</v>
@@ -5323,12 +4938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18">
       <c r="B18" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
